--- a/group2 project/results/res_line/loading_percent.xlsx
+++ b/group2 project/results/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -391,557 +391,707 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53.2266650989535</v>
+        <v>39.89357529077701</v>
       </c>
       <c r="C2">
-        <v>15.13002959829427</v>
+        <v>14.42584315285108</v>
       </c>
       <c r="D2">
-        <v>19.66673169492486</v>
+        <v>2.841616238245531</v>
       </c>
       <c r="E2">
-        <v>58.83792509459336</v>
+        <v>35.76242688675786</v>
       </c>
       <c r="F2">
-        <v>30.49863652527541</v>
+        <v>2.090918796130416</v>
       </c>
       <c r="G2">
-        <v>0.7376838541501013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.7765280802623485</v>
+      </c>
+      <c r="H2">
+        <v>13.79467636360304</v>
+      </c>
+      <c r="I2">
+        <v>7.283361618958789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44.88273467301014</v>
+        <v>30.65814084543652</v>
       </c>
       <c r="C3">
-        <v>13.24139171133391</v>
+        <v>11.82933428465083</v>
       </c>
       <c r="D3">
-        <v>22.01511555709566</v>
+        <v>2.794876689421153</v>
       </c>
       <c r="E3">
-        <v>57.96006660152216</v>
+        <v>34.71917232158083</v>
       </c>
       <c r="F3">
-        <v>28.21616623620721</v>
+        <v>2.276368245798199</v>
       </c>
       <c r="G3">
-        <v>0.7426202805478841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.7784362262265677</v>
+      </c>
+      <c r="H3">
+        <v>13.38256718581779</v>
+      </c>
+      <c r="I3">
+        <v>8.209715818408611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>39.2650667843828</v>
+        <v>23.84212808604341</v>
       </c>
       <c r="C4">
-        <v>12.74385703690936</v>
+        <v>9.93047285700708</v>
       </c>
       <c r="D4">
-        <v>23.91154029308365</v>
+        <v>3.370100531325728</v>
       </c>
       <c r="E4">
-        <v>57.38736026526772</v>
+        <v>33.90557206332545</v>
       </c>
       <c r="F4">
-        <v>26.46095934364757</v>
+        <v>2.773836122071642</v>
       </c>
       <c r="G4">
-        <v>0.7460033560898116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.7798251856026759</v>
+      </c>
+      <c r="H4">
+        <v>13.06025572297687</v>
+      </c>
+      <c r="I4">
+        <v>9.004927818721145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>36.79442518745598</v>
+        <v>20.611509226436</v>
       </c>
       <c r="C5">
-        <v>12.88342271183654</v>
+        <v>9.022932948572974</v>
       </c>
       <c r="D5">
-        <v>24.92423549759657</v>
+        <v>3.820397907553705</v>
       </c>
       <c r="E5">
-        <v>57.12247499078248</v>
+        <v>33.48026411096615</v>
       </c>
       <c r="F5">
-        <v>25.55061367106804</v>
+        <v>3.114004646765447</v>
       </c>
       <c r="G5">
-        <v>0.7476146279782576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.7805143186136749</v>
+      </c>
+      <c r="H5">
+        <v>12.89151586906208</v>
+      </c>
+      <c r="I5">
+        <v>9.441825663559166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.85069899376532</v>
+        <v>19.33378798823061</v>
       </c>
       <c r="C6">
-        <v>13.02986262870779</v>
+        <v>8.656534897159041</v>
       </c>
       <c r="D6">
-        <v>25.36733355301615</v>
+        <v>4.037712922894061</v>
       </c>
       <c r="E6">
-        <v>57.01456555599393</v>
+        <v>33.2960314433634</v>
       </c>
       <c r="F6">
-        <v>25.15766765393273</v>
+        <v>3.273542523134407</v>
       </c>
       <c r="G6">
-        <v>0.7482795583254249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.7808046396750082</v>
+      </c>
+      <c r="H6">
+        <v>12.81837844968674</v>
+      </c>
+      <c r="I6">
+        <v>9.635146412689197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.85069899376532</v>
+        <v>19.33378798823061</v>
       </c>
       <c r="C7">
-        <v>13.02986262870779</v>
+        <v>8.656534897159041</v>
       </c>
       <c r="D7">
-        <v>25.36733355301615</v>
+        <v>4.037712922894061</v>
       </c>
       <c r="E7">
-        <v>57.01456555599393</v>
+        <v>33.2960314433634</v>
       </c>
       <c r="F7">
-        <v>25.15766765393273</v>
+        <v>3.273542523134407</v>
       </c>
       <c r="G7">
-        <v>0.7482795583254249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.7808046396750082</v>
+      </c>
+      <c r="H7">
+        <v>12.81837844968674</v>
+      </c>
+      <c r="I7">
+        <v>9.635146412689197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>36.07605731758166</v>
+        <v>19.64096765593509</v>
       </c>
       <c r="C8">
-        <v>12.98893998824871</v>
+        <v>8.745306093296525</v>
       </c>
       <c r="D8">
-        <v>25.25762050410735</v>
+        <v>3.98294649868945</v>
       </c>
       <c r="E8">
-        <v>57.04085095983823</v>
+        <v>33.34154578211791</v>
       </c>
       <c r="F8">
-        <v>25.25466836577083</v>
+        <v>3.233528705125419</v>
       </c>
       <c r="G8">
-        <v>0.7481171378260192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.7807333842990238</v>
+      </c>
+      <c r="H8">
+        <v>12.83644912411267</v>
+      </c>
+      <c r="I8">
+        <v>9.587167103251977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.88292228675424</v>
+        <v>24.62494925970685</v>
       </c>
       <c r="C9">
-        <v>12.75129281893428</v>
+        <v>10.14866609759085</v>
       </c>
       <c r="D9">
-        <v>23.68120056461662</v>
+        <v>3.278867088510742</v>
       </c>
       <c r="E9">
-        <v>57.45135868347371</v>
+        <v>34.00316417499434</v>
       </c>
       <c r="F9">
-        <v>26.67050998081326</v>
+        <v>2.702294721372988</v>
       </c>
       <c r="G9">
-        <v>0.7456185271301914</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.7796634048389497</v>
+      </c>
+      <c r="H9">
+        <v>13.09895298281636</v>
+      </c>
+      <c r="I9">
+        <v>8.906620334454464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>52.57212643120391</v>
+        <v>39.19646743537271</v>
       </c>
       <c r="C10">
-        <v>14.95006997336751</v>
+        <v>14.22864937815778</v>
       </c>
       <c r="D10">
-        <v>19.83864607753471</v>
+        <v>2.806542163093028</v>
       </c>
       <c r="E10">
-        <v>58.76623045486296</v>
+        <v>35.6845315672094</v>
       </c>
       <c r="F10">
-        <v>30.3267684839124</v>
+        <v>2.083866801023946</v>
       </c>
       <c r="G10">
-        <v>0.7380765131116203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.7766752305114651</v>
+      </c>
+      <c r="H10">
+        <v>13.76395875053742</v>
+      </c>
+      <c r="I10">
+        <v>7.348352997151345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67.40213682635716</v>
+        <v>54.21356322807942</v>
       </c>
       <c r="C11">
-        <v>19.745473255609</v>
+        <v>18.51147209775981</v>
       </c>
       <c r="D11">
-        <v>16.2734761361241</v>
+        <v>4.252602494729179</v>
       </c>
       <c r="E11">
-        <v>60.56948739387133</v>
+        <v>37.36250759415326</v>
       </c>
       <c r="F11">
-        <v>34.09679397933426</v>
+        <v>2.827549002809807</v>
       </c>
       <c r="G11">
-        <v>0.7286869706141251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.7733515433424877</v>
+      </c>
+      <c r="H11">
+        <v>14.42346145646246</v>
+      </c>
+      <c r="I11">
+        <v>6.134667447485195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>75.11103574252344</v>
+        <v>61.51196486679663</v>
       </c>
       <c r="C12">
-        <v>22.58798109111637</v>
+        <v>20.61276427685739</v>
       </c>
       <c r="D12">
-        <v>14.64211756823318</v>
+        <v>5.233170414725076</v>
       </c>
       <c r="E12">
-        <v>61.69318727011064</v>
+        <v>38.18816465742707</v>
       </c>
       <c r="F12">
-        <v>36.02034512945306</v>
+        <v>3.461823893376895</v>
       </c>
       <c r="G12">
-        <v>0.7232714872328689</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.771606505484543</v>
+      </c>
+      <c r="H12">
+        <v>14.74609644980658</v>
+      </c>
+      <c r="I12">
+        <v>5.711709335956867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>81.36825428061417</v>
+        <v>67.22155710721862</v>
       </c>
       <c r="C13">
-        <v>24.98323556504469</v>
+        <v>22.2624872539364</v>
       </c>
       <c r="D13">
-        <v>13.42125020553611</v>
+        <v>6.048686840978014</v>
       </c>
       <c r="E13">
-        <v>62.72503683270386</v>
+        <v>38.84243538488324</v>
       </c>
       <c r="F13">
-        <v>37.59067932459998</v>
+        <v>4.011735893030707</v>
       </c>
       <c r="G13">
-        <v>0.7185361630728128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.7701775115719067</v>
+      </c>
+      <c r="H13">
+        <v>15.00078714160883</v>
+      </c>
+      <c r="I13">
+        <v>5.47719007128507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>82.48983037092302</v>
+        <v>68.22505441467528</v>
       </c>
       <c r="C14">
-        <v>25.41875412490787</v>
+        <v>22.55286051780542</v>
       </c>
       <c r="D14">
-        <v>13.21260770273705</v>
+        <v>6.194890442556501</v>
       </c>
       <c r="E14">
-        <v>62.92281041811811</v>
+        <v>38.95829439326512</v>
       </c>
       <c r="F14">
-        <v>37.8739387325765</v>
+        <v>4.111655140586223</v>
       </c>
       <c r="G14">
-        <v>0.7176516715200085</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.7699204350199851</v>
+      </c>
+      <c r="H14">
+        <v>15.04579485538366</v>
+      </c>
+      <c r="I14">
+        <v>5.445683160509904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>80.87567554047298</v>
+        <v>66.77891760560694</v>
       </c>
       <c r="C15">
-        <v>24.79249770184905</v>
+        <v>22.13444139798013</v>
       </c>
       <c r="D15">
-        <v>13.51388622697301</v>
+        <v>5.984431313219696</v>
       </c>
       <c r="E15">
-        <v>62.63946901540868</v>
+        <v>38.79141609513944</v>
       </c>
       <c r="F15">
-        <v>37.46647903591033</v>
+        <v>3.967931169794755</v>
       </c>
       <c r="G15">
-        <v>0.7189210482793515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.770290340518442</v>
+      </c>
+      <c r="H15">
+        <v>14.98095868486668</v>
+      </c>
+      <c r="I15">
+        <v>5.492042518474188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80.89101497458928</v>
+        <v>66.79271951393658</v>
       </c>
       <c r="C16">
-        <v>24.79843242585114</v>
+        <v>22.13843363689219</v>
       </c>
       <c r="D16">
-        <v>13.51099227268922</v>
+        <v>5.986432607995126</v>
       </c>
       <c r="E16">
-        <v>62.64212196033806</v>
+        <v>38.7930061388986</v>
       </c>
       <c r="F16">
-        <v>37.47034497790942</v>
+        <v>3.969294460183848</v>
       </c>
       <c r="G16">
-        <v>0.71890909503566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.7702868276382401</v>
+      </c>
+      <c r="H16">
+        <v>14.9815767323288</v>
+      </c>
+      <c r="I16">
+        <v>5.491570652481419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80.98895512199363</v>
+        <v>66.8808160557852</v>
       </c>
       <c r="C17">
-        <v>24.83633252724001</v>
+        <v>22.16391632976616</v>
       </c>
       <c r="D17">
-        <v>13.49252864874992</v>
+        <v>5.999210168739025</v>
       </c>
       <c r="E17">
-        <v>62.65907836336314</v>
+        <v>38.80315645584093</v>
       </c>
       <c r="F17">
-        <v>37.49503116165464</v>
+        <v>3.978000188996316</v>
       </c>
       <c r="G17">
-        <v>0.7188327261228568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.7702643972585304</v>
+      </c>
+      <c r="H17">
+        <v>14.98552201869507</v>
+      </c>
+      <c r="I17">
+        <v>5.488572014948001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>75.86325286626254</v>
+        <v>62.20832456672363</v>
       </c>
       <c r="C18">
-        <v>22.87244577709371</v>
+        <v>20.81372777721977</v>
       </c>
       <c r="D18">
-        <v>14.49037691565752</v>
+        <v>5.330876755535431</v>
       </c>
       <c r="E18">
-        <v>61.81116099253823</v>
+        <v>38.267534514092</v>
       </c>
       <c r="F18">
-        <v>36.20842366411802</v>
+        <v>3.526911594408681</v>
       </c>
       <c r="G18">
-        <v>0.7227192851749488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.7714352633390946</v>
+      </c>
+      <c r="H18">
+        <v>14.77704001560423</v>
+      </c>
+      <c r="I18">
+        <v>5.678282315533085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72.77016970567689</v>
+        <v>59.32727137785355</v>
       </c>
       <c r="C19">
-        <v>21.7099111930523</v>
+        <v>19.98277362992928</v>
       </c>
       <c r="D19">
-        <v>15.12282496802181</v>
+        <v>4.930598468562262</v>
       </c>
       <c r="E19">
-        <v>61.33594688293269</v>
+        <v>37.93986963048218</v>
       </c>
       <c r="F19">
-        <v>35.43581506816863</v>
+        <v>3.262039390107669</v>
       </c>
       <c r="G19">
-        <v>0.7249618299504718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.7721383282876607</v>
+      </c>
+      <c r="H19">
+        <v>14.64921295065205</v>
+      </c>
+      <c r="I19">
+        <v>5.824757737898442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>72.79276373634158</v>
+        <v>59.34848674474667</v>
       </c>
       <c r="C20">
-        <v>21.71833112103663</v>
+        <v>19.98888765282291</v>
       </c>
       <c r="D20">
-        <v>15.11812399715594</v>
+        <v>4.933505261007067</v>
       </c>
       <c r="E20">
-        <v>61.33932520549116</v>
+        <v>37.94227577171118</v>
       </c>
       <c r="F20">
-        <v>35.4414527156717</v>
+        <v>3.263944597366757</v>
       </c>
       <c r="G20">
-        <v>0.724945713588769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.7721332030977774</v>
+      </c>
+      <c r="H20">
+        <v>14.65015240521024</v>
+      </c>
+      <c r="I20">
+        <v>5.823601710821675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>80.99843673270327</v>
+        <v>66.88934225142425</v>
       </c>
       <c r="C21">
-        <v>24.84000235266946</v>
+        <v>22.16638265497142</v>
       </c>
       <c r="D21">
-        <v>13.49074245469534</v>
+        <v>6.000447127243456</v>
       </c>
       <c r="E21">
-        <v>62.66072154548916</v>
+        <v>38.80413893702868</v>
       </c>
       <c r="F21">
-        <v>37.49742128459096</v>
+        <v>3.978843111793386</v>
       </c>
       <c r="G21">
-        <v>0.7188253283153156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.7702622256647179</v>
+      </c>
+      <c r="H21">
+        <v>14.98590388387635</v>
+      </c>
+      <c r="I21">
+        <v>5.488283016164943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>89.41831120123346</v>
+        <v>74.28695772041614</v>
       </c>
       <c r="C22">
-        <v>28.14214440868547</v>
+        <v>24.30912077241231</v>
       </c>
       <c r="D22">
-        <v>11.99743685123512</v>
+        <v>7.091056129039991</v>
       </c>
       <c r="E22">
-        <v>64.24215350003784</v>
+        <v>39.66420011819886</v>
       </c>
       <c r="F22">
-        <v>39.64113096961722</v>
+        <v>4.730350756430939</v>
       </c>
       <c r="G22">
-        <v>0.7119212151848003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.7683292367626104</v>
+      </c>
+      <c r="H22">
+        <v>15.31939387071818</v>
+      </c>
+      <c r="I22">
+        <v>5.321766287159257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96.22325533182841</v>
+        <v>79.99729388961299</v>
       </c>
       <c r="C23">
-        <v>30.86267296135528</v>
+        <v>25.96626722382695</v>
       </c>
       <c r="D23">
-        <v>10.93877231818835</v>
+        <v>7.95019929943254</v>
       </c>
       <c r="E23">
-        <v>65.72557785957821</v>
+        <v>40.339329240043</v>
       </c>
       <c r="F23">
-        <v>41.4151677473616</v>
+        <v>5.331022769630481</v>
       </c>
       <c r="G23">
-        <v>0.7057914192280196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.766769466244165</v>
+      </c>
+      <c r="H23">
+        <v>15.58003657631296</v>
+      </c>
+      <c r="I23">
+        <v>5.3138733483975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>98.84978243761623</v>
+        <v>82.13048291137004</v>
       </c>
       <c r="C24">
-        <v>31.92302178261339</v>
+        <v>26.58584311072828</v>
       </c>
       <c r="D24">
-        <v>10.56944613611095</v>
+        <v>8.273799570817902</v>
       </c>
       <c r="E24">
-        <v>66.35647982323333</v>
+        <v>40.59423776108525</v>
       </c>
       <c r="F24">
-        <v>42.11291826261957</v>
+        <v>5.558710925591021</v>
       </c>
       <c r="G24">
-        <v>0.7032729390738919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.7661714440069798</v>
+      </c>
+      <c r="H24">
+        <v>15.67818018204326</v>
+      </c>
+      <c r="I24">
+        <v>5.338496363335036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>85.66045220471072</v>
+        <v>71.02875195980997</v>
       </c>
       <c r="C25">
-        <v>26.65842710568167</v>
+        <v>23.36471519816828</v>
       </c>
       <c r="D25">
-        <v>12.6403934750189</v>
+        <v>6.606872541520442</v>
       </c>
       <c r="E25">
-        <v>63.50493031778338</v>
+        <v>39.28346780605085</v>
       </c>
       <c r="F25">
-        <v>38.67859713055607</v>
+        <v>4.394872377404982</v>
       </c>
       <c r="G25">
-        <v>0.7150880399507986</v>
+        <v>0.7691926828785637</v>
+      </c>
+      <c r="H25">
+        <v>15.17196166806589</v>
+      </c>
+      <c r="I25">
+        <v>5.373957380784068</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/loading_percent.xlsx
+++ b/group2 project/results/res_line/loading_percent.xlsx
@@ -403,28 +403,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39.89357529077701</v>
+        <v>22.27707562706342</v>
       </c>
       <c r="C2">
-        <v>14.42584315285108</v>
+        <v>3.370399395714863</v>
       </c>
       <c r="D2">
-        <v>2.841616238245531</v>
+        <v>31.33259771631893</v>
       </c>
       <c r="E2">
-        <v>35.76242688675786</v>
+        <v>64.9591273144981</v>
       </c>
       <c r="F2">
-        <v>2.090918796130416</v>
+        <v>27.64850165818148</v>
       </c>
       <c r="G2">
-        <v>0.7765280802623485</v>
+        <v>0.7983459015769437</v>
       </c>
       <c r="H2">
-        <v>13.79467636360304</v>
+        <v>23.49999061453126</v>
       </c>
       <c r="I2">
-        <v>7.283361618958789</v>
+        <v>11.76492207051701</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -432,28 +432,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.65814084543652</v>
+        <v>14.5466383144955</v>
       </c>
       <c r="C3">
-        <v>11.82933428465083</v>
+        <v>7.464427643675682</v>
       </c>
       <c r="D3">
-        <v>2.794876689421153</v>
+        <v>33.72369799056887</v>
       </c>
       <c r="E3">
-        <v>34.71917232158083</v>
+        <v>65.07212332542561</v>
       </c>
       <c r="F3">
-        <v>2.276368245798199</v>
+        <v>25.82769531611721</v>
       </c>
       <c r="G3">
-        <v>0.7784362262265677</v>
+        <v>0.7987371938486771</v>
       </c>
       <c r="H3">
-        <v>13.38256718581779</v>
+        <v>22.90503291933921</v>
       </c>
       <c r="I3">
-        <v>8.209715818408611</v>
+        <v>11.91387822353293</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -461,28 +461,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.84212808604341</v>
+        <v>11.80495454269124</v>
       </c>
       <c r="C4">
-        <v>9.93047285700708</v>
+        <v>10.59418342230815</v>
       </c>
       <c r="D4">
-        <v>3.370100531325728</v>
+        <v>35.37390976589519</v>
       </c>
       <c r="E4">
-        <v>33.90557206332545</v>
+        <v>64.88678185744442</v>
       </c>
       <c r="F4">
-        <v>2.773836122071642</v>
+        <v>24.37960437132714</v>
       </c>
       <c r="G4">
-        <v>0.7798251856026759</v>
+        <v>0.7990257511681168</v>
       </c>
       <c r="H4">
-        <v>13.06025572297687</v>
+        <v>22.46651293506611</v>
       </c>
       <c r="I4">
-        <v>9.004927818721145</v>
+        <v>11.7477562833219</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -490,28 +490,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.611509226436</v>
+        <v>12.04910518068123</v>
       </c>
       <c r="C5">
-        <v>9.022932948572974</v>
+        <v>11.94843029637465</v>
       </c>
       <c r="D5">
-        <v>3.820397907553705</v>
+        <v>35.91575561381596</v>
       </c>
       <c r="E5">
-        <v>33.48026411096615</v>
+        <v>64.44589251282</v>
       </c>
       <c r="F5">
-        <v>3.114004646765447</v>
+        <v>23.61234108955462</v>
       </c>
       <c r="G5">
-        <v>0.7805143186136749</v>
+        <v>0.7992071251969207</v>
       </c>
       <c r="H5">
-        <v>12.89151586906208</v>
+        <v>22.19067861865746</v>
       </c>
       <c r="I5">
-        <v>9.441825663559166</v>
+        <v>11.3139088922775</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -519,28 +519,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.33378798823061</v>
+        <v>12.36728659535978</v>
       </c>
       <c r="C6">
-        <v>8.656534897159041</v>
+        <v>12.41950439666152</v>
       </c>
       <c r="D6">
-        <v>4.037712922894061</v>
+        <v>36.02443599857974</v>
       </c>
       <c r="E6">
-        <v>33.2960314433634</v>
+        <v>64.12368407801247</v>
       </c>
       <c r="F6">
-        <v>3.273542523134407</v>
+        <v>23.27764444276775</v>
       </c>
       <c r="G6">
-        <v>0.7808046396750082</v>
+        <v>0.7993013301232036</v>
       </c>
       <c r="H6">
-        <v>12.81837844968674</v>
+        <v>22.04744434859182</v>
       </c>
       <c r="I6">
-        <v>9.635146412689197</v>
+        <v>10.99373759213834</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -548,28 +548,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.33378798823061</v>
+        <v>12.36728659535978</v>
       </c>
       <c r="C7">
-        <v>8.656534897159041</v>
+        <v>12.41950439666152</v>
       </c>
       <c r="D7">
-        <v>4.037712922894061</v>
+        <v>36.02443599857974</v>
       </c>
       <c r="E7">
-        <v>33.2960314433634</v>
+        <v>64.12368407801247</v>
       </c>
       <c r="F7">
-        <v>3.273542523134407</v>
+        <v>23.27764444276775</v>
       </c>
       <c r="G7">
-        <v>0.7808046396750082</v>
+        <v>0.7993013301232036</v>
       </c>
       <c r="H7">
-        <v>12.81837844968674</v>
+        <v>22.04744434859182</v>
       </c>
       <c r="I7">
-        <v>9.635146412689197</v>
+        <v>10.99373759213834</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -577,28 +577,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.64096765593509</v>
+        <v>12.18366183725986</v>
       </c>
       <c r="C8">
-        <v>8.745306093296525</v>
+        <v>12.17333238799529</v>
       </c>
       <c r="D8">
-        <v>3.98294649868945</v>
+        <v>35.86034518772338</v>
       </c>
       <c r="E8">
-        <v>33.34154578211791</v>
+        <v>64.06535560894933</v>
       </c>
       <c r="F8">
-        <v>3.233528705125419</v>
+        <v>23.35981922418615</v>
       </c>
       <c r="G8">
-        <v>0.7807333842990238</v>
+        <v>0.7992974115562674</v>
       </c>
       <c r="H8">
-        <v>12.83644912411267</v>
+        <v>22.05354620189475</v>
       </c>
       <c r="I8">
-        <v>9.587167103251977</v>
+        <v>10.93407342304822</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -606,28 +606,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.62494925970685</v>
+        <v>12.15420999185499</v>
       </c>
       <c r="C9">
-        <v>10.14866609759085</v>
+        <v>9.357454706477581</v>
       </c>
       <c r="D9">
-        <v>3.278867088510742</v>
+        <v>34.26001907999796</v>
       </c>
       <c r="E9">
-        <v>34.00316417499434</v>
+        <v>63.98912708626988</v>
       </c>
       <c r="F9">
-        <v>2.702294721372988</v>
+        <v>24.55048402199625</v>
       </c>
       <c r="G9">
-        <v>0.7796634048389497</v>
+        <v>0.7991136841700697</v>
       </c>
       <c r="H9">
-        <v>13.09895298281636</v>
+        <v>22.33289532636016</v>
       </c>
       <c r="I9">
-        <v>8.906620334454464</v>
+        <v>10.8423248253931</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -635,28 +635,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.19646743537271</v>
+        <v>22.60080787853947</v>
       </c>
       <c r="C10">
-        <v>14.22864937815778</v>
+        <v>3.120790783725849</v>
       </c>
       <c r="D10">
-        <v>2.806542163093028</v>
+        <v>30.88485212865321</v>
       </c>
       <c r="E10">
-        <v>35.6845315672094</v>
+        <v>64.33891293853858</v>
       </c>
       <c r="F10">
-        <v>2.083866801023946</v>
+        <v>27.51142198259187</v>
       </c>
       <c r="G10">
-        <v>0.7766752305114651</v>
+        <v>0.7984448035169819</v>
       </c>
       <c r="H10">
-        <v>13.76395875053742</v>
+        <v>23.34988826512841</v>
       </c>
       <c r="I10">
-        <v>7.348352997151345</v>
+        <v>11.14317749104012</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -664,28 +664,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>54.21356322807942</v>
+        <v>36.61359875409178</v>
       </c>
       <c r="C11">
-        <v>18.51147209775981</v>
+        <v>3.934121698274838</v>
       </c>
       <c r="D11">
-        <v>4.252602494729179</v>
+        <v>27.67034670341199</v>
       </c>
       <c r="E11">
-        <v>37.36250759415326</v>
+        <v>64.61369510743947</v>
       </c>
       <c r="F11">
-        <v>2.827549002809807</v>
+        <v>30.35968418328209</v>
       </c>
       <c r="G11">
-        <v>0.7733515433424877</v>
+        <v>0.7976228347915535</v>
       </c>
       <c r="H11">
-        <v>14.42346145646246</v>
+        <v>24.60002757791132</v>
       </c>
       <c r="I11">
-        <v>6.134667447485195</v>
+        <v>11.35321411401351</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -693,28 +693,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61.51196486679663</v>
+        <v>43.36306129878504</v>
       </c>
       <c r="C12">
-        <v>20.61276427685739</v>
+        <v>6.71112887240611</v>
       </c>
       <c r="D12">
-        <v>5.233170414725076</v>
+        <v>25.99016928550224</v>
       </c>
       <c r="E12">
-        <v>38.18816465742707</v>
+        <v>64.55902743687633</v>
       </c>
       <c r="F12">
-        <v>3.461823893376895</v>
+        <v>31.71871937411587</v>
       </c>
       <c r="G12">
-        <v>0.771606505484543</v>
+        <v>0.7971881006981043</v>
       </c>
       <c r="H12">
-        <v>14.74609644980658</v>
+        <v>25.21530439367907</v>
       </c>
       <c r="I12">
-        <v>5.711709335956867</v>
+        <v>11.26100131462551</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -722,28 +722,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67.22155710721862</v>
+        <v>45.29561413767886</v>
       </c>
       <c r="C13">
-        <v>22.2624872539364</v>
+        <v>7.197604302802805</v>
       </c>
       <c r="D13">
-        <v>6.048686840978014</v>
+        <v>24.68161061025798</v>
       </c>
       <c r="E13">
-        <v>38.84243538488324</v>
+        <v>64.48625612947443</v>
       </c>
       <c r="F13">
-        <v>4.011735893030707</v>
+        <v>32.77288289942553</v>
       </c>
       <c r="G13">
-        <v>0.7701775115719067</v>
+        <v>0.7968825108552381</v>
       </c>
       <c r="H13">
-        <v>15.00078714160883</v>
+        <v>25.45909213056271</v>
       </c>
       <c r="I13">
-        <v>5.47719007128507</v>
+        <v>11.15818699286311</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -751,28 +751,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>68.22505441467528</v>
+        <v>43.11958824529835</v>
       </c>
       <c r="C14">
-        <v>22.55286051780542</v>
+        <v>5.96924025857966</v>
       </c>
       <c r="D14">
-        <v>6.194890442556501</v>
+        <v>24.33270372949186</v>
       </c>
       <c r="E14">
-        <v>38.95829439326512</v>
+        <v>64.34347265647631</v>
       </c>
       <c r="F14">
-        <v>4.111655140586223</v>
+        <v>32.95539153248164</v>
       </c>
       <c r="G14">
-        <v>0.7699204350199851</v>
+        <v>0.7968763997880084</v>
       </c>
       <c r="H14">
-        <v>15.04579485538366</v>
+        <v>25.39979554608291</v>
       </c>
       <c r="I14">
-        <v>5.445683160509904</v>
+        <v>11.0102483527408</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -780,28 +780,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>66.77891760560694</v>
+        <v>40.76444192238331</v>
       </c>
       <c r="C15">
-        <v>22.13444139798013</v>
+        <v>4.896259637661193</v>
       </c>
       <c r="D15">
-        <v>5.984431313219696</v>
+        <v>24.42410427619701</v>
       </c>
       <c r="E15">
-        <v>38.79141609513944</v>
+        <v>64.11699173644948</v>
       </c>
       <c r="F15">
-        <v>3.967931169794755</v>
+        <v>32.68706780661693</v>
       </c>
       <c r="G15">
-        <v>0.770290340518442</v>
+        <v>0.7970007969636709</v>
       </c>
       <c r="H15">
-        <v>14.98095868486668</v>
+        <v>25.22063427429934</v>
       </c>
       <c r="I15">
-        <v>5.492042518474188</v>
+        <v>10.79053987928659</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -809,28 +809,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>66.79271951393658</v>
+        <v>39.89570161153664</v>
       </c>
       <c r="C16">
-        <v>22.13843363689219</v>
+        <v>4.46244646105386</v>
       </c>
       <c r="D16">
-        <v>5.986432607995126</v>
+        <v>24.63039722395499</v>
       </c>
       <c r="E16">
-        <v>38.7930061388986</v>
+        <v>64.32986640505104</v>
       </c>
       <c r="F16">
-        <v>3.969294460183848</v>
+        <v>32.690085996154</v>
       </c>
       <c r="G16">
-        <v>0.7702868276382401</v>
+        <v>0.796989571607789</v>
       </c>
       <c r="H16">
-        <v>14.9815767323288</v>
+        <v>25.24514386850154</v>
       </c>
       <c r="I16">
-        <v>5.491570652481419</v>
+        <v>11.00527636592415</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -838,28 +838,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>66.8808160557852</v>
+        <v>39.11401342581016</v>
       </c>
       <c r="C17">
-        <v>22.16391632976616</v>
+        <v>4.069904677052261</v>
       </c>
       <c r="D17">
-        <v>5.999210168739025</v>
+        <v>24.88321638243669</v>
       </c>
       <c r="E17">
-        <v>38.80315645584093</v>
+        <v>64.60678793622054</v>
       </c>
       <c r="F17">
-        <v>3.978000188996316</v>
+        <v>32.70712957618439</v>
       </c>
       <c r="G17">
-        <v>0.7702643972585304</v>
+        <v>0.7969668350287722</v>
       </c>
       <c r="H17">
-        <v>14.98552201869507</v>
+        <v>25.28650889937001</v>
       </c>
       <c r="I17">
-        <v>5.488572014948001</v>
+        <v>11.28407806775029</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -867,28 +867,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>62.20832456672363</v>
+        <v>35.02737491038415</v>
       </c>
       <c r="C18">
-        <v>20.81372777721977</v>
+        <v>2.548354061598416</v>
       </c>
       <c r="D18">
-        <v>5.330876755535431</v>
+        <v>25.84706530169066</v>
       </c>
       <c r="E18">
-        <v>38.267534514092</v>
+        <v>64.55551118380943</v>
       </c>
       <c r="F18">
-        <v>3.526911594408681</v>
+        <v>31.84341360979079</v>
       </c>
       <c r="G18">
-        <v>0.7714352633390946</v>
+        <v>0.7972459558241783</v>
       </c>
       <c r="H18">
-        <v>14.77704001560423</v>
+        <v>24.86387665555799</v>
       </c>
       <c r="I18">
-        <v>5.678282315533085</v>
+        <v>11.25715518253374</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -896,28 +896,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>59.32727137785355</v>
+        <v>33.22468995562494</v>
       </c>
       <c r="C19">
-        <v>19.98277362992928</v>
+        <v>2.04333446974085</v>
       </c>
       <c r="D19">
-        <v>4.930598468562262</v>
+        <v>26.58742740623879</v>
       </c>
       <c r="E19">
-        <v>37.93986963048218</v>
+        <v>64.66504675484774</v>
       </c>
       <c r="F19">
-        <v>3.262039390107669</v>
+        <v>31.30988666012703</v>
       </c>
       <c r="G19">
-        <v>0.7721383282876607</v>
+        <v>0.7973934058642542</v>
       </c>
       <c r="H19">
-        <v>14.64921295065205</v>
+        <v>24.62695823555432</v>
       </c>
       <c r="I19">
-        <v>5.824757737898442</v>
+        <v>11.38191899645495</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -925,28 +925,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>59.34848674474667</v>
+        <v>37.49042325542224</v>
       </c>
       <c r="C20">
-        <v>19.98888765282291</v>
+        <v>3.919602245866761</v>
       </c>
       <c r="D20">
-        <v>4.933505261007067</v>
+        <v>26.5556339609379</v>
       </c>
       <c r="E20">
-        <v>37.94227577171118</v>
+        <v>64.64197317608459</v>
       </c>
       <c r="F20">
-        <v>3.263944597366757</v>
+        <v>31.31521545931107</v>
       </c>
       <c r="G20">
-        <v>0.7721332030977774</v>
+        <v>0.7973601396837799</v>
       </c>
       <c r="H20">
-        <v>14.65015240521024</v>
+        <v>24.74384656985828</v>
       </c>
       <c r="I20">
-        <v>5.823601710821675</v>
+        <v>11.35743542684318</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -954,28 +954,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>66.88934225142425</v>
+        <v>48.45122925416649</v>
       </c>
       <c r="C21">
-        <v>22.16638265497142</v>
+        <v>8.865953645498765</v>
       </c>
       <c r="D21">
-        <v>6.000447127243456</v>
+        <v>25.07554397554704</v>
       </c>
       <c r="E21">
-        <v>38.80413893702868</v>
+        <v>64.82428710887459</v>
       </c>
       <c r="F21">
-        <v>3.978843111793386</v>
+        <v>32.7156739032883</v>
       </c>
       <c r="G21">
-        <v>0.7702622256647179</v>
+        <v>0.7968129441050684</v>
       </c>
       <c r="H21">
-        <v>14.98590388387635</v>
+        <v>25.80375053187469</v>
       </c>
       <c r="I21">
-        <v>5.488283016164943</v>
+        <v>11.49851977318409</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -983,28 +983,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>74.28695772041614</v>
+        <v>55.47893207008286</v>
       </c>
       <c r="C22">
-        <v>24.30912077241231</v>
+        <v>11.82400867854242</v>
       </c>
       <c r="D22">
-        <v>7.091056129039991</v>
+        <v>23.84211780243913</v>
       </c>
       <c r="E22">
-        <v>39.66420011819886</v>
+        <v>65.18410086685874</v>
       </c>
       <c r="F22">
-        <v>4.730350756430939</v>
+        <v>34.0812910749634</v>
       </c>
       <c r="G22">
-        <v>0.7683292367626104</v>
+        <v>0.7962646198737624</v>
       </c>
       <c r="H22">
-        <v>15.31939387071818</v>
+        <v>26.66374108757664</v>
       </c>
       <c r="I22">
-        <v>5.321766287159257</v>
+        <v>11.81679440829344</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>79.99729388961299</v>
+        <v>60.46578833574247</v>
       </c>
       <c r="C23">
-        <v>25.96626722382695</v>
+        <v>13.87173399238003</v>
       </c>
       <c r="D23">
-        <v>7.95019929943254</v>
+        <v>23.01155641305263</v>
       </c>
       <c r="E23">
-        <v>40.339329240043</v>
+        <v>65.5611069188304</v>
       </c>
       <c r="F23">
-        <v>5.331022769630481</v>
+        <v>35.13153986049915</v>
       </c>
       <c r="G23">
-        <v>0.766769466244165</v>
+        <v>0.7958178756533519</v>
       </c>
       <c r="H23">
-        <v>15.58003657631296</v>
+        <v>27.34345405620727</v>
       </c>
       <c r="I23">
-        <v>5.3138733483975</v>
+        <v>12.16009977088055</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82.13048291137004</v>
+        <v>62.1157881249738</v>
       </c>
       <c r="C24">
-        <v>26.58584311072828</v>
+        <v>14.52608019903177</v>
       </c>
       <c r="D24">
-        <v>8.273799570817902</v>
+        <v>22.81635779503582</v>
       </c>
       <c r="E24">
-        <v>40.59423776108525</v>
+        <v>65.81481545791577</v>
       </c>
       <c r="F24">
-        <v>5.558710925591021</v>
+        <v>35.52333808494438</v>
       </c>
       <c r="G24">
-        <v>0.7661714440069798</v>
+        <v>0.7956411603101621</v>
       </c>
       <c r="H24">
-        <v>15.67818018204326</v>
+        <v>27.61254224906727</v>
       </c>
       <c r="I24">
-        <v>5.338496363335036</v>
+        <v>12.40162363983272</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>71.02875195980997</v>
+        <v>50.87543064073672</v>
       </c>
       <c r="C25">
-        <v>23.36471519816828</v>
+        <v>9.740112517761961</v>
       </c>
       <c r="D25">
-        <v>6.606872541520442</v>
+        <v>25.25843131601283</v>
       </c>
       <c r="E25">
-        <v>39.28346780605085</v>
+        <v>65.92074962847282</v>
       </c>
       <c r="F25">
-        <v>4.394872377404982</v>
+        <v>33.48320684160136</v>
       </c>
       <c r="G25">
-        <v>0.7691926828785637</v>
+        <v>0.7964540688428836</v>
       </c>
       <c r="H25">
-        <v>15.17196166806589</v>
+        <v>26.3764560870963</v>
       </c>
       <c r="I25">
-        <v>5.373957380784068</v>
+        <v>12.57954909938502</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/loading_percent.xlsx
+++ b/group2 project/results/res_line/loading_percent.xlsx
@@ -403,28 +403,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.27707562706342</v>
+        <v>14.7762923801373</v>
       </c>
       <c r="C2">
-        <v>3.370399395714863</v>
+        <v>16.45410662037906</v>
       </c>
       <c r="D2">
-        <v>31.33259771631893</v>
+        <v>31.41121271759826</v>
       </c>
       <c r="E2">
-        <v>64.9591273144981</v>
+        <v>64.9296021667828</v>
       </c>
       <c r="F2">
-        <v>27.64850165818148</v>
+        <v>27.6096713377087</v>
       </c>
       <c r="G2">
-        <v>0.7983459015769437</v>
+        <v>26.88192976645026</v>
       </c>
       <c r="H2">
-        <v>23.49999061453126</v>
+        <v>21.93613514594962</v>
       </c>
       <c r="I2">
-        <v>11.76492207051701</v>
+        <v>11.76492207051713</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -432,28 +432,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.5466383144955</v>
+        <v>21.34662493986396</v>
       </c>
       <c r="C3">
-        <v>7.464427643675682</v>
+        <v>20.24472670391475</v>
       </c>
       <c r="D3">
-        <v>33.72369799056887</v>
+        <v>33.78181099469198</v>
       </c>
       <c r="E3">
-        <v>65.07212332542561</v>
+        <v>65.05262370553847</v>
       </c>
       <c r="F3">
-        <v>25.82769531611721</v>
+        <v>25.79741679389391</v>
       </c>
       <c r="G3">
-        <v>0.7987371938486771</v>
+        <v>25.9362111995143</v>
       </c>
       <c r="H3">
-        <v>22.90503291933921</v>
+        <v>21.5931635013527</v>
       </c>
       <c r="I3">
-        <v>11.91387822353293</v>
+        <v>11.91387822353288</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -461,28 +461,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.80495454269124</v>
+        <v>27.86854013751097</v>
       </c>
       <c r="C4">
-        <v>10.59418342230815</v>
+        <v>23.33171076406046</v>
       </c>
       <c r="D4">
-        <v>35.37390976589519</v>
+        <v>35.41824965159178</v>
       </c>
       <c r="E4">
-        <v>64.88678185744442</v>
+        <v>64.87116177929292</v>
       </c>
       <c r="F4">
-        <v>24.37960437132714</v>
+        <v>24.3556494045565</v>
       </c>
       <c r="G4">
-        <v>0.7990257511681168</v>
+        <v>25.80642041036722</v>
       </c>
       <c r="H4">
-        <v>22.46651293506611</v>
+        <v>21.36279692001262</v>
       </c>
       <c r="I4">
-        <v>11.7477562833219</v>
+        <v>11.747756283322</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -490,28 +490,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.04910518068123</v>
+        <v>30.48377973497384</v>
       </c>
       <c r="C5">
-        <v>11.94843029637465</v>
+        <v>24.41773488340902</v>
       </c>
       <c r="D5">
-        <v>35.91575561381596</v>
+        <v>35.95556031504215</v>
       </c>
       <c r="E5">
-        <v>64.44589251282</v>
+        <v>64.43169346292925</v>
       </c>
       <c r="F5">
-        <v>23.61234108955462</v>
+        <v>23.59061388041486</v>
       </c>
       <c r="G5">
-        <v>0.7992071251969207</v>
+        <v>25.26586860481049</v>
       </c>
       <c r="H5">
-        <v>22.19067861865746</v>
+        <v>21.15494754750851</v>
       </c>
       <c r="I5">
-        <v>11.3139088922775</v>
+        <v>11.31390889227735</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -519,28 +519,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.36728659535978</v>
+        <v>31.6125160482742</v>
       </c>
       <c r="C6">
-        <v>12.41950439666152</v>
+        <v>24.87662966994259</v>
       </c>
       <c r="D6">
-        <v>36.02443599857974</v>
+        <v>36.0621807410098</v>
       </c>
       <c r="E6">
-        <v>64.12368407801247</v>
+        <v>64.11021413762214</v>
       </c>
       <c r="F6">
-        <v>23.27764444276775</v>
+        <v>23.25701591370317</v>
       </c>
       <c r="G6">
-        <v>0.7993013301232036</v>
+        <v>25.23764604296051</v>
       </c>
       <c r="H6">
-        <v>22.04744434859182</v>
+        <v>21.04904428702805</v>
       </c>
       <c r="I6">
-        <v>10.99373759213834</v>
+        <v>10.99373759213814</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -548,28 +548,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.36728659535978</v>
+        <v>31.6125160482742</v>
       </c>
       <c r="C7">
-        <v>12.41950439666152</v>
+        <v>24.87662966994259</v>
       </c>
       <c r="D7">
-        <v>36.02443599857974</v>
+        <v>36.0621807410098</v>
       </c>
       <c r="E7">
-        <v>64.12368407801247</v>
+        <v>64.11021413762214</v>
       </c>
       <c r="F7">
-        <v>23.27764444276775</v>
+        <v>23.25701591370317</v>
       </c>
       <c r="G7">
-        <v>0.7993013301232036</v>
+        <v>25.23764604296051</v>
       </c>
       <c r="H7">
-        <v>22.04744434859182</v>
+        <v>21.04904428702805</v>
       </c>
       <c r="I7">
-        <v>10.99373759213834</v>
+        <v>10.99373759213814</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -577,28 +577,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.18366183725986</v>
+        <v>33.90780087229769</v>
       </c>
       <c r="C8">
-        <v>12.17333238799529</v>
+        <v>26.12507387335151</v>
       </c>
       <c r="D8">
-        <v>35.86034518772338</v>
+        <v>35.89162297456311</v>
       </c>
       <c r="E8">
-        <v>64.06535560894933</v>
+        <v>64.054197187124</v>
       </c>
       <c r="F8">
-        <v>23.35981922418615</v>
+        <v>23.34275453950811</v>
       </c>
       <c r="G8">
-        <v>0.7992974115562674</v>
+        <v>28.20472328129831</v>
       </c>
       <c r="H8">
-        <v>22.05354620189475</v>
+        <v>21.23083990082707</v>
       </c>
       <c r="I8">
-        <v>10.93407342304822</v>
+        <v>10.93407342304814</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -606,28 +606,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.15420999185499</v>
+        <v>27.40447689700449</v>
       </c>
       <c r="C9">
-        <v>9.357454706477581</v>
+        <v>23.15805067867885</v>
       </c>
       <c r="D9">
-        <v>34.26001907999796</v>
+        <v>34.30309765150864</v>
       </c>
       <c r="E9">
-        <v>63.98912708626988</v>
+        <v>63.97455445045546</v>
       </c>
       <c r="F9">
-        <v>24.55048402199625</v>
+        <v>24.52783032428151</v>
       </c>
       <c r="G9">
-        <v>0.7991136841700697</v>
+        <v>27.91519603284878</v>
       </c>
       <c r="H9">
-        <v>22.33289532636016</v>
+        <v>21.2967702044766</v>
       </c>
       <c r="I9">
-        <v>10.8423248253931</v>
+        <v>10.84232482539293</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -635,28 +635,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.60080787853947</v>
+        <v>23.08634139103774</v>
       </c>
       <c r="C10">
-        <v>3.120790783725849</v>
+        <v>21.91728926764066</v>
       </c>
       <c r="D10">
-        <v>30.88485212865321</v>
+        <v>30.93085628822603</v>
       </c>
       <c r="E10">
-        <v>64.33891293853858</v>
+        <v>64.32163422566043</v>
       </c>
       <c r="F10">
-        <v>27.51142198259187</v>
+        <v>27.48883200268015</v>
       </c>
       <c r="G10">
-        <v>0.7984448035169819</v>
+        <v>38.35370324260033</v>
       </c>
       <c r="H10">
-        <v>23.34988826512841</v>
+        <v>22.43567667807724</v>
       </c>
       <c r="I10">
-        <v>11.14317749104012</v>
+        <v>11.14317749104015</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -664,28 +664,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.61359875409178</v>
+        <v>21.33854024070081</v>
       </c>
       <c r="C11">
-        <v>3.934121698274838</v>
+        <v>21.89855522362939</v>
       </c>
       <c r="D11">
-        <v>27.67034670341199</v>
+        <v>27.71070359669863</v>
       </c>
       <c r="E11">
-        <v>64.61369510743947</v>
+        <v>64.59970100728289</v>
       </c>
       <c r="F11">
-        <v>30.35968418328209</v>
+        <v>30.34115604797204</v>
       </c>
       <c r="G11">
-        <v>0.7976228347915535</v>
+        <v>50.89358175291409</v>
       </c>
       <c r="H11">
-        <v>24.60002757791132</v>
+        <v>23.92658725490288</v>
       </c>
       <c r="I11">
-        <v>11.35321411401351</v>
+        <v>11.35321411401357</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -693,28 +693,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43.36306129878504</v>
+        <v>16.47672331348848</v>
       </c>
       <c r="C12">
-        <v>6.71112887240611</v>
+        <v>18.95347354729494</v>
       </c>
       <c r="D12">
-        <v>25.99016928550224</v>
+        <v>26.06038936400896</v>
       </c>
       <c r="E12">
-        <v>64.55902743687633</v>
+        <v>64.53590234904134</v>
       </c>
       <c r="F12">
-        <v>31.71871937411587</v>
+        <v>31.68783332386919</v>
       </c>
       <c r="G12">
-        <v>0.7971881006981043</v>
+        <v>50.61492480720171</v>
       </c>
       <c r="H12">
-        <v>25.21530439367907</v>
+        <v>24.14518631038187</v>
       </c>
       <c r="I12">
-        <v>11.26100131462551</v>
+        <v>11.26100131462552</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -722,28 +722,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>45.29561413767886</v>
+        <v>14.35551133470464</v>
       </c>
       <c r="C13">
-        <v>7.197604302802805</v>
+        <v>17.04732190199029</v>
       </c>
       <c r="D13">
-        <v>24.68161061025798</v>
+        <v>24.77932149973108</v>
       </c>
       <c r="E13">
-        <v>64.48625612947443</v>
+        <v>64.45543975636407</v>
       </c>
       <c r="F13">
-        <v>32.77288289942553</v>
+        <v>32.73143760084069</v>
       </c>
       <c r="G13">
-        <v>0.7968825108552381</v>
+        <v>47.68130302978444</v>
       </c>
       <c r="H13">
-        <v>25.45909213056271</v>
+        <v>24.07956518314305</v>
       </c>
       <c r="I13">
-        <v>11.15818699286311</v>
+        <v>11.15818699286304</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -751,28 +751,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>43.11958824529835</v>
+        <v>13.40059509451916</v>
       </c>
       <c r="C14">
-        <v>5.96924025857966</v>
+        <v>14.37788803362618</v>
       </c>
       <c r="D14">
-        <v>24.33270372949186</v>
+        <v>24.45938044169138</v>
       </c>
       <c r="E14">
-        <v>64.34347265647631</v>
+        <v>64.30430273550586</v>
       </c>
       <c r="F14">
-        <v>32.95539153248164</v>
+        <v>32.90239277509354</v>
       </c>
       <c r="G14">
-        <v>0.7968763997880084</v>
+        <v>39.84149824236539</v>
       </c>
       <c r="H14">
-        <v>25.39979554608291</v>
+        <v>23.66208586610903</v>
       </c>
       <c r="I14">
-        <v>11.0102483527408</v>
+        <v>11.01024835274092</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -780,28 +780,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.76444192238331</v>
+        <v>13.43789451675674</v>
       </c>
       <c r="C15">
-        <v>4.896259637661193</v>
+        <v>13.47944607089134</v>
       </c>
       <c r="D15">
-        <v>24.42410427619701</v>
+        <v>24.55654882307202</v>
       </c>
       <c r="E15">
-        <v>64.11699173644948</v>
+        <v>64.07609867474876</v>
       </c>
       <c r="F15">
-        <v>32.68706780661693</v>
+        <v>32.63164668059404</v>
       </c>
       <c r="G15">
-        <v>0.7970007969636709</v>
+        <v>35.8672163852514</v>
       </c>
       <c r="H15">
-        <v>25.22063427429934</v>
+        <v>23.39675061411612</v>
       </c>
       <c r="I15">
-        <v>10.79053987928659</v>
+        <v>10.79053987928665</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -809,28 +809,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.89570161153664</v>
+        <v>14.00768661550958</v>
       </c>
       <c r="C16">
-        <v>4.46244646105386</v>
+        <v>12.2629721581139</v>
       </c>
       <c r="D16">
-        <v>24.63039722395499</v>
+        <v>24.77056055774778</v>
       </c>
       <c r="E16">
-        <v>64.32986640505104</v>
+        <v>64.28643112363879</v>
       </c>
       <c r="F16">
-        <v>32.690085996154</v>
+        <v>32.63114436706324</v>
       </c>
       <c r="G16">
-        <v>0.796989571607789</v>
+        <v>32.53160759843582</v>
       </c>
       <c r="H16">
-        <v>25.24514386850154</v>
+        <v>23.30973638979718</v>
       </c>
       <c r="I16">
-        <v>11.00527636592415</v>
+        <v>11.00527636592392</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -838,28 +838,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>39.11401342581016</v>
+        <v>15.67846237014269</v>
       </c>
       <c r="C17">
-        <v>4.069904677052261</v>
+        <v>10.35048693994489</v>
       </c>
       <c r="D17">
-        <v>24.88321638243669</v>
+        <v>25.03291885059386</v>
       </c>
       <c r="E17">
-        <v>64.60678793622054</v>
+        <v>64.56017651668442</v>
       </c>
       <c r="F17">
-        <v>32.70712957618439</v>
+        <v>32.64378837248375</v>
       </c>
       <c r="G17">
-        <v>0.7969668350287722</v>
+        <v>27.90958880873287</v>
       </c>
       <c r="H17">
-        <v>25.28650889937001</v>
+        <v>23.21126703846781</v>
       </c>
       <c r="I17">
-        <v>11.28407806775029</v>
+        <v>11.28407806775012</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -867,28 +867,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.02737491038415</v>
+        <v>14.77104993365896</v>
       </c>
       <c r="C18">
-        <v>2.548354061598416</v>
+        <v>10.65462033068249</v>
       </c>
       <c r="D18">
-        <v>25.84706530169066</v>
+        <v>25.98532553075867</v>
       </c>
       <c r="E18">
-        <v>64.55551118380943</v>
+        <v>64.511317674886</v>
       </c>
       <c r="F18">
-        <v>31.84341360979079</v>
+        <v>31.78348981934177</v>
       </c>
       <c r="G18">
-        <v>0.7972459558241783</v>
+        <v>25.12734360924059</v>
       </c>
       <c r="H18">
-        <v>24.86387665555799</v>
+        <v>22.84010613941725</v>
       </c>
       <c r="I18">
-        <v>11.25715518253374</v>
+        <v>11.25715518253376</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -896,28 +896,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.22468995562494</v>
+        <v>12.92760023736571</v>
       </c>
       <c r="C19">
-        <v>2.04333446974085</v>
+        <v>13.5741118157776</v>
       </c>
       <c r="D19">
-        <v>26.58742740623879</v>
+        <v>26.70640574828785</v>
       </c>
       <c r="E19">
-        <v>64.66504675484774</v>
+        <v>64.62606190448589</v>
       </c>
       <c r="F19">
-        <v>31.30988666012703</v>
+        <v>31.25726312341101</v>
       </c>
       <c r="G19">
-        <v>0.7973934058642542</v>
+        <v>29.52122721690088</v>
       </c>
       <c r="H19">
-        <v>24.62695823555432</v>
+        <v>22.80772639331957</v>
       </c>
       <c r="I19">
-        <v>11.38191899645495</v>
+        <v>11.38191899645481</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -925,28 +925,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>37.49042325542224</v>
+        <v>14.89430795940051</v>
       </c>
       <c r="C20">
-        <v>3.919602245866761</v>
+        <v>17.47457685121529</v>
       </c>
       <c r="D20">
-        <v>26.5556339609379</v>
+        <v>26.64406121012178</v>
       </c>
       <c r="E20">
-        <v>64.64197317608459</v>
+        <v>64.61268585622804</v>
       </c>
       <c r="F20">
-        <v>31.31521545931107</v>
+        <v>31.2759408082837</v>
       </c>
       <c r="G20">
-        <v>0.7973601396837799</v>
+        <v>41.84326141618565</v>
       </c>
       <c r="H20">
-        <v>24.74384656985828</v>
+        <v>23.36894484827548</v>
       </c>
       <c r="I20">
-        <v>11.35743542684318</v>
+        <v>11.35743542684305</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -954,28 +954,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>48.45122925416649</v>
+        <v>18.91041923876049</v>
       </c>
       <c r="C21">
-        <v>8.865953645498765</v>
+        <v>21.04577443037343</v>
       </c>
       <c r="D21">
-        <v>25.07554397554704</v>
+        <v>25.1207877582311</v>
       </c>
       <c r="E21">
-        <v>64.82428710887459</v>
+        <v>64.80958965620498</v>
       </c>
       <c r="F21">
-        <v>32.7156739032883</v>
+        <v>32.69611526828881</v>
       </c>
       <c r="G21">
-        <v>0.7968129441050684</v>
+        <v>59.21217843060735</v>
       </c>
       <c r="H21">
-        <v>25.80375053187469</v>
+        <v>25.14916499853112</v>
       </c>
       <c r="I21">
-        <v>11.49851977318409</v>
+        <v>11.4985197731838</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -983,28 +983,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>55.47893207008286</v>
+        <v>14.19749000842855</v>
       </c>
       <c r="C22">
-        <v>11.82400867854242</v>
+        <v>16.55660073925122</v>
       </c>
       <c r="D22">
-        <v>23.84211780243913</v>
+        <v>23.94545454342042</v>
       </c>
       <c r="E22">
-        <v>65.18410086685874</v>
+        <v>65.15192760323163</v>
       </c>
       <c r="F22">
-        <v>34.0812910749634</v>
+        <v>34.03814780220976</v>
       </c>
       <c r="G22">
-        <v>0.7962646198737624</v>
+        <v>55.86275204251011</v>
       </c>
       <c r="H22">
-        <v>26.66374108757664</v>
+        <v>25.2831689008042</v>
       </c>
       <c r="I22">
-        <v>11.81679440829344</v>
+        <v>11.81679440829355</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>60.46578833574247</v>
+        <v>14.43423929015913</v>
       </c>
       <c r="C23">
-        <v>13.87173399238003</v>
+        <v>14.24396258475732</v>
       </c>
       <c r="D23">
-        <v>23.01155641305263</v>
+        <v>23.14956957088648</v>
       </c>
       <c r="E23">
-        <v>65.5611069188304</v>
+        <v>65.51920977879648</v>
       </c>
       <c r="F23">
-        <v>35.13153986049915</v>
+        <v>35.07519630308648</v>
       </c>
       <c r="G23">
-        <v>0.7958178756533519</v>
+        <v>55.16489908802068</v>
       </c>
       <c r="H23">
-        <v>27.34345405620727</v>
+        <v>25.60029204017304</v>
       </c>
       <c r="I23">
-        <v>12.16009977088055</v>
+        <v>12.16009977088063</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>62.1157881249738</v>
+        <v>15.41062786253845</v>
       </c>
       <c r="C24">
-        <v>14.52608019903177</v>
+        <v>12.87512404990288</v>
       </c>
       <c r="D24">
-        <v>22.81635779503582</v>
+        <v>22.97372440002113</v>
       </c>
       <c r="E24">
-        <v>65.81481545791577</v>
+        <v>65.76738614501346</v>
       </c>
       <c r="F24">
-        <v>35.52333808494438</v>
+        <v>35.45944776787097</v>
       </c>
       <c r="G24">
-        <v>0.7956411603101621</v>
+        <v>53.64635339604051</v>
       </c>
       <c r="H24">
-        <v>27.61254224906727</v>
+        <v>25.66008461833945</v>
       </c>
       <c r="I24">
-        <v>12.40162363983272</v>
+        <v>12.40162363983257</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>50.87543064073672</v>
+        <v>14.33590594027615</v>
       </c>
       <c r="C25">
-        <v>9.740112517761961</v>
+        <v>12.63259935713168</v>
       </c>
       <c r="D25">
-        <v>25.25843131601283</v>
+        <v>25.39607631267654</v>
       </c>
       <c r="E25">
-        <v>65.92074962847282</v>
+        <v>65.87667471211559</v>
       </c>
       <c r="F25">
-        <v>33.48320684160136</v>
+        <v>33.42378347623739</v>
       </c>
       <c r="G25">
-        <v>0.7964540688428836</v>
+        <v>43.73071624603024</v>
       </c>
       <c r="H25">
-        <v>26.3764560870963</v>
+        <v>24.4359976660304</v>
       </c>
       <c r="I25">
-        <v>12.57954909938502</v>
+        <v>12.57954909938493</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/loading_percent.xlsx
+++ b/group2 project/results/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -397,701 +397,776 @@
       <c r="I1" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.7762923801373</v>
+        <v>17.00574840379306</v>
       </c>
       <c r="C2">
-        <v>16.45410662037906</v>
+        <v>5.406655925299357</v>
       </c>
       <c r="D2">
-        <v>31.41121271759826</v>
+        <v>31.27054526671736</v>
       </c>
       <c r="E2">
-        <v>64.9296021667828</v>
+        <v>64.72661569258489</v>
       </c>
       <c r="F2">
-        <v>27.6096713377087</v>
+        <v>27.45544108540775</v>
       </c>
       <c r="G2">
-        <v>26.88192976645026</v>
+        <v>0.8034900864571506</v>
       </c>
       <c r="H2">
-        <v>21.93613514594962</v>
+        <v>15.67845026782888</v>
       </c>
       <c r="I2">
-        <v>11.76492207051713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>11.76492207051708</v>
+      </c>
+      <c r="J2">
+        <v>15.60876182928248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.34662493986396</v>
+        <v>10.75443657083123</v>
       </c>
       <c r="C3">
-        <v>20.24472670391475</v>
+        <v>9.277548942523994</v>
       </c>
       <c r="D3">
-        <v>33.78181099469198</v>
+        <v>33.3781766207698</v>
       </c>
       <c r="E3">
-        <v>65.05262370553847</v>
+        <v>64.87592704617387</v>
       </c>
       <c r="F3">
-        <v>25.79741679389391</v>
+        <v>25.6542904515203</v>
       </c>
       <c r="G3">
-        <v>25.9362111995143</v>
+        <v>0.8037075902584432</v>
       </c>
       <c r="H3">
-        <v>21.5931635013527</v>
+        <v>15.34780960405789</v>
       </c>
       <c r="I3">
-        <v>11.91387822353288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>11.91387822353296</v>
+      </c>
+      <c r="J3">
+        <v>15.14456624941922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.86854013751097</v>
+        <v>10.18095187294628</v>
       </c>
       <c r="C4">
-        <v>23.33171076406046</v>
+        <v>12.14174128954348</v>
       </c>
       <c r="D4">
-        <v>35.41824965159178</v>
+        <v>34.83033451928341</v>
       </c>
       <c r="E4">
-        <v>64.87116177929292</v>
+        <v>64.7147544993349</v>
       </c>
       <c r="F4">
-        <v>24.3556494045565</v>
+        <v>24.22098909892054</v>
       </c>
       <c r="G4">
-        <v>25.80642041036722</v>
+        <v>0.8038604260045576</v>
       </c>
       <c r="H4">
-        <v>21.36279692001262</v>
+        <v>15.11569996229187</v>
       </c>
       <c r="I4">
-        <v>11.747756283322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>11.74775628332202</v>
+      </c>
+      <c r="J4">
+        <v>14.76055882786771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.48377973497384</v>
+        <v>11.51296953569128</v>
       </c>
       <c r="C5">
-        <v>24.41773488340902</v>
+        <v>13.43977468804031</v>
       </c>
       <c r="D5">
-        <v>35.95556031504215</v>
+        <v>35.37230503636943</v>
       </c>
       <c r="E5">
-        <v>64.43169346292925</v>
+        <v>64.28927375534926</v>
       </c>
       <c r="F5">
-        <v>23.59061388041486</v>
+        <v>23.46194089096988</v>
       </c>
       <c r="G5">
-        <v>25.26586860481049</v>
+        <v>0.8039497205325926</v>
       </c>
       <c r="H5">
-        <v>21.15494754750851</v>
+        <v>14.97990030168783</v>
       </c>
       <c r="I5">
-        <v>11.31390889227735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>11.31390889227744</v>
+      </c>
+      <c r="J5">
+        <v>14.50699474181757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31.6125160482742</v>
+        <v>12.20254759236242</v>
       </c>
       <c r="C6">
-        <v>24.87662966994259</v>
+        <v>13.90375123909125</v>
       </c>
       <c r="D6">
-        <v>36.0621807410098</v>
+        <v>35.5040495199581</v>
       </c>
       <c r="E6">
-        <v>64.11021413762214</v>
+        <v>63.97493306172562</v>
       </c>
       <c r="F6">
-        <v>23.25701591370317</v>
+        <v>23.1310121984788</v>
       </c>
       <c r="G6">
-        <v>25.23764604296051</v>
+        <v>0.8039956550362964</v>
       </c>
       <c r="H6">
-        <v>21.04904428702805</v>
+        <v>14.91007472551373</v>
       </c>
       <c r="I6">
-        <v>10.99373759213814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>10.99373759213819</v>
+      </c>
+      <c r="J6">
+        <v>14.37461255642429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31.6125160482742</v>
+        <v>12.20254759236242</v>
       </c>
       <c r="C7">
-        <v>24.87662966994259</v>
+        <v>13.90375123909125</v>
       </c>
       <c r="D7">
-        <v>36.0621807410098</v>
+        <v>35.5040495199581</v>
       </c>
       <c r="E7">
-        <v>64.11021413762214</v>
+        <v>63.97493306172562</v>
       </c>
       <c r="F7">
-        <v>23.25701591370317</v>
+        <v>23.1310121984788</v>
       </c>
       <c r="G7">
-        <v>25.23764604296051</v>
+        <v>0.8039956550362964</v>
       </c>
       <c r="H7">
-        <v>21.04904428702805</v>
+        <v>14.91007472551373</v>
       </c>
       <c r="I7">
-        <v>10.99373759213814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>10.99373759213819</v>
+      </c>
+      <c r="J7">
+        <v>14.37461255642429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.90780087229769</v>
+        <v>11.7353268892185</v>
       </c>
       <c r="C8">
-        <v>26.12507387335151</v>
+        <v>13.55368534663899</v>
       </c>
       <c r="D8">
-        <v>35.89162297456311</v>
+        <v>35.23247391470785</v>
       </c>
       <c r="E8">
-        <v>64.054197187124</v>
+        <v>63.91619256968296</v>
       </c>
       <c r="F8">
-        <v>23.34275453950811</v>
+        <v>23.212321715857</v>
       </c>
       <c r="G8">
-        <v>28.20472328129831</v>
+        <v>0.804001945830808</v>
       </c>
       <c r="H8">
-        <v>21.23083990082707</v>
+        <v>14.90065294856641</v>
       </c>
       <c r="I8">
-        <v>10.93407342304814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>10.93407342304823</v>
+      </c>
+      <c r="J8">
+        <v>14.37935692228597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.40447689700449</v>
+        <v>9.735994375714355</v>
       </c>
       <c r="C9">
-        <v>23.15805067867885</v>
+        <v>11.03704412334141</v>
       </c>
       <c r="D9">
-        <v>34.30309765150864</v>
+        <v>33.88104715154159</v>
       </c>
       <c r="E9">
-        <v>63.97455445045546</v>
+        <v>63.82408289527589</v>
       </c>
       <c r="F9">
-        <v>24.52783032428151</v>
+        <v>24.39216098198252</v>
       </c>
       <c r="G9">
-        <v>27.91519603284878</v>
+        <v>0.8039041811260849</v>
       </c>
       <c r="H9">
-        <v>21.2967702044766</v>
+        <v>15.04926748216267</v>
       </c>
       <c r="I9">
-        <v>10.84232482539293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>10.84232482539304</v>
+      </c>
+      <c r="J9">
+        <v>14.64084290152096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.08634139103774</v>
+        <v>18.0156711176465</v>
       </c>
       <c r="C10">
-        <v>21.91728926764066</v>
+        <v>4.707876295773831</v>
       </c>
       <c r="D10">
-        <v>30.93085628822603</v>
+        <v>30.42768651391658</v>
       </c>
       <c r="E10">
-        <v>64.32163422566043</v>
+        <v>64.11536476868208</v>
       </c>
       <c r="F10">
-        <v>27.48883200268015</v>
+        <v>27.32063191718655</v>
       </c>
       <c r="G10">
-        <v>38.35370324260033</v>
+        <v>0.8035560914389115</v>
       </c>
       <c r="H10">
-        <v>22.43567667807724</v>
+        <v>15.57838551873557</v>
       </c>
       <c r="I10">
-        <v>11.14317749104015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>11.1431774910402</v>
+      </c>
+      <c r="J10">
+        <v>15.45158317810716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.33854024070081</v>
+        <v>31.83662032927777</v>
       </c>
       <c r="C11">
-        <v>21.89855522362939</v>
+        <v>1.909315082485758</v>
       </c>
       <c r="D11">
-        <v>27.71070359669863</v>
+        <v>26.97982330767995</v>
       </c>
       <c r="E11">
-        <v>64.59970100728289</v>
+        <v>64.31748294150047</v>
       </c>
       <c r="F11">
-        <v>30.34115604797204</v>
+        <v>30.13269572088112</v>
       </c>
       <c r="G11">
-        <v>50.89358175291409</v>
+        <v>0.8030889045471605</v>
       </c>
       <c r="H11">
-        <v>23.92658725490288</v>
+        <v>16.28890821591982</v>
       </c>
       <c r="I11">
-        <v>11.35321411401357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>11.35321411401343</v>
+      </c>
+      <c r="J11">
+        <v>16.32405312247012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.47672331348848</v>
+        <v>38.19248635998322</v>
       </c>
       <c r="C12">
-        <v>18.95347354729494</v>
+        <v>4.488631133522677</v>
       </c>
       <c r="D12">
-        <v>26.06038936400896</v>
+        <v>25.34157978216253</v>
       </c>
       <c r="E12">
-        <v>64.53590234904134</v>
+        <v>64.22458483150348</v>
       </c>
       <c r="F12">
-        <v>31.68783332386919</v>
+        <v>31.47310274235238</v>
       </c>
       <c r="G12">
-        <v>50.61492480720171</v>
+        <v>0.8028263675394708</v>
       </c>
       <c r="H12">
-        <v>24.14518631038187</v>
+        <v>16.64359121205858</v>
       </c>
       <c r="I12">
-        <v>11.26100131462552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>11.2610013146254</v>
+      </c>
+      <c r="J12">
+        <v>16.74687658909011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.35551133470464</v>
+        <v>41.32719058235018</v>
       </c>
       <c r="C13">
-        <v>17.04732190199029</v>
+        <v>5.595334694476142</v>
       </c>
       <c r="D13">
-        <v>24.77932149973108</v>
+        <v>23.26455278702272</v>
       </c>
       <c r="E13">
-        <v>64.45543975636407</v>
+        <v>64.121915647606</v>
       </c>
       <c r="F13">
-        <v>32.73143760084069</v>
+        <v>32.51276991865871</v>
       </c>
       <c r="G13">
-        <v>47.68130302978444</v>
+        <v>0.802643086857987</v>
       </c>
       <c r="H13">
-        <v>24.07956518314305</v>
+        <v>16.75445366199545</v>
       </c>
       <c r="I13">
-        <v>11.15818699286304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>11.15818699286315</v>
+      </c>
+      <c r="J13">
+        <v>17.07946580066017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.40059509451916</v>
+        <v>40.0751266815424</v>
       </c>
       <c r="C14">
-        <v>14.37788803362618</v>
+        <v>4.868404966265146</v>
       </c>
       <c r="D14">
-        <v>24.45938044169138</v>
+        <v>22.40596499826737</v>
       </c>
       <c r="E14">
-        <v>64.30430273550586</v>
+        <v>63.97614577798745</v>
       </c>
       <c r="F14">
-        <v>32.90239277509354</v>
+        <v>32.69353343620037</v>
       </c>
       <c r="G14">
-        <v>39.84149824236539</v>
+        <v>0.8026405378665943</v>
       </c>
       <c r="H14">
-        <v>23.66208586610903</v>
+        <v>16.80291090235071</v>
       </c>
       <c r="I14">
-        <v>11.01024835274092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>11.01024835274067</v>
+      </c>
+      <c r="J14">
+        <v>17.13014030856796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.43789451675674</v>
+        <v>38.08909249574054</v>
       </c>
       <c r="C15">
-        <v>13.47944607089134</v>
+        <v>3.98050971963545</v>
       </c>
       <c r="D15">
-        <v>24.55654882307202</v>
+        <v>22.34164883420102</v>
       </c>
       <c r="E15">
-        <v>64.07609867474876</v>
+        <v>63.76035796979147</v>
       </c>
       <c r="F15">
-        <v>32.63164668059404</v>
+        <v>32.42981832329124</v>
       </c>
       <c r="G15">
-        <v>35.8672163852514</v>
+        <v>0.8027148886564126</v>
       </c>
       <c r="H15">
-        <v>23.39675061411612</v>
+        <v>16.76298755041979</v>
       </c>
       <c r="I15">
-        <v>10.79053987928665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>10.79053987928664</v>
+      </c>
+      <c r="J15">
+        <v>17.01435140848129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.00768661550958</v>
+        <v>37.26149481819314</v>
       </c>
       <c r="C16">
-        <v>12.2629721581139</v>
+        <v>3.556732210434538</v>
       </c>
       <c r="D16">
-        <v>24.77056055774778</v>
+        <v>22.51546181711697</v>
       </c>
       <c r="E16">
-        <v>64.28643112363879</v>
+        <v>63.97172117234084</v>
       </c>
       <c r="F16">
-        <v>32.63114436706324</v>
+        <v>32.43237719092593</v>
       </c>
       <c r="G16">
-        <v>32.53160759843582</v>
+        <v>0.8027132760385361</v>
       </c>
       <c r="H16">
-        <v>23.30973638979718</v>
+        <v>16.79858975509996</v>
       </c>
       <c r="I16">
-        <v>11.00527636592392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>11.00527636592399</v>
+      </c>
+      <c r="J16">
+        <v>17.04707909745907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.67846237014269</v>
+        <v>36.35783388883655</v>
       </c>
       <c r="C17">
-        <v>10.35048693994489</v>
+        <v>3.0893018227153</v>
       </c>
       <c r="D17">
-        <v>25.03291885059386</v>
+        <v>22.8172647260441</v>
       </c>
       <c r="E17">
-        <v>64.56017651668442</v>
+        <v>64.2460941056861</v>
       </c>
       <c r="F17">
-        <v>32.64378837248375</v>
+        <v>32.44860957968994</v>
       </c>
       <c r="G17">
-        <v>27.90958880873287</v>
+        <v>0.8027052233037526</v>
       </c>
       <c r="H17">
-        <v>23.21126703846781</v>
+        <v>16.83761547454329</v>
       </c>
       <c r="I17">
-        <v>11.28407806775012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>11.28407806775023</v>
+      </c>
+      <c r="J17">
+        <v>17.08852182460097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.77104993365896</v>
+        <v>32.19734972871832</v>
       </c>
       <c r="C18">
-        <v>10.65462033068249</v>
+        <v>1.449321647755522</v>
       </c>
       <c r="D18">
-        <v>25.98532553075867</v>
+        <v>23.92250614318649</v>
       </c>
       <c r="E18">
-        <v>64.511317674886</v>
+        <v>64.22091453376845</v>
       </c>
       <c r="F18">
-        <v>31.78348981934177</v>
+        <v>31.59718335971469</v>
       </c>
       <c r="G18">
-        <v>25.12734360924059</v>
+        <v>0.8028746485147885</v>
       </c>
       <c r="H18">
-        <v>22.84010613941725</v>
+        <v>16.56720189253091</v>
       </c>
       <c r="I18">
-        <v>11.25715518253376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>11.25715518253373</v>
+      </c>
+      <c r="J18">
+        <v>16.79572934269442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.92760023736571</v>
+        <v>30.45031951169204</v>
       </c>
       <c r="C19">
-        <v>13.5741118157776</v>
+        <v>0.9571361887602855</v>
       </c>
       <c r="D19">
-        <v>26.70640574828785</v>
+        <v>24.69023727667108</v>
       </c>
       <c r="E19">
-        <v>64.62606190448589</v>
+        <v>64.34450978906148</v>
       </c>
       <c r="F19">
-        <v>31.25726312341101</v>
+        <v>31.07055287633506</v>
       </c>
       <c r="G19">
-        <v>29.52122721690088</v>
+        <v>0.8029665521772608</v>
       </c>
       <c r="H19">
-        <v>22.80772639331957</v>
+        <v>16.35695428907853</v>
       </c>
       <c r="I19">
-        <v>11.38191899645481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>11.38191899645507</v>
+      </c>
+      <c r="J19">
+        <v>16.64611746749298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.89430795940051</v>
+        <v>33.62273501801296</v>
       </c>
       <c r="C20">
-        <v>17.47457685121529</v>
+        <v>2.357621737117289</v>
       </c>
       <c r="D20">
-        <v>26.64406121012178</v>
+        <v>25.26363581061207</v>
       </c>
       <c r="E20">
-        <v>64.61268585622804</v>
+        <v>64.32027206455582</v>
       </c>
       <c r="F20">
-        <v>31.2759408082837</v>
+        <v>31.07561657621214</v>
       </c>
       <c r="G20">
-        <v>41.84326141618565</v>
+        <v>0.8029381961502694</v>
       </c>
       <c r="H20">
-        <v>23.36894484827548</v>
+        <v>16.31292826804184</v>
       </c>
       <c r="I20">
-        <v>11.35743542684305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>11.35743542684321</v>
+      </c>
+      <c r="J20">
+        <v>16.62457650807969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.91041923876049</v>
+        <v>43.55789453801648</v>
       </c>
       <c r="C21">
-        <v>21.04577443037343</v>
+        <v>6.763953893995911</v>
       </c>
       <c r="D21">
-        <v>25.1207877582311</v>
+        <v>24.14046160384673</v>
       </c>
       <c r="E21">
-        <v>64.80958965620498</v>
+        <v>64.45681424965318</v>
       </c>
       <c r="F21">
-        <v>32.69611526828881</v>
+        <v>32.45471418825817</v>
       </c>
       <c r="G21">
-        <v>59.21217843060735</v>
+        <v>0.8026029619365799</v>
       </c>
       <c r="H21">
-        <v>25.14916499853112</v>
+        <v>17.00046803783838</v>
       </c>
       <c r="I21">
-        <v>11.4985197731838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>11.49851977318413</v>
+      </c>
+      <c r="J21">
+        <v>17.11976137228981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.19749000842855</v>
+        <v>49.59397651816207</v>
       </c>
       <c r="C22">
-        <v>16.55660073925122</v>
+        <v>9.200367139560164</v>
       </c>
       <c r="D22">
-        <v>23.94545454342042</v>
+        <v>23.19587887716594</v>
       </c>
       <c r="E22">
-        <v>65.15192760323163</v>
+        <v>64.76800245948809</v>
       </c>
       <c r="F22">
-        <v>34.03814780220976</v>
+        <v>33.79788306765032</v>
       </c>
       <c r="G22">
-        <v>55.86275204251011</v>
+        <v>0.8022745402916538</v>
       </c>
       <c r="H22">
-        <v>25.2831689008042</v>
+        <v>17.5253797040983</v>
       </c>
       <c r="I22">
-        <v>11.81679440829355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>11.81679440829345</v>
+      </c>
+      <c r="J22">
+        <v>17.64768397876634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.43423929015913</v>
+        <v>54.1476718558423</v>
       </c>
       <c r="C23">
-        <v>14.24396258475732</v>
+        <v>11.02449637078702</v>
       </c>
       <c r="D23">
-        <v>23.14956957088648</v>
+        <v>22.39622140936462</v>
       </c>
       <c r="E23">
-        <v>65.51920977879648</v>
+        <v>65.10445266431802</v>
       </c>
       <c r="F23">
-        <v>35.07519630308648</v>
+        <v>34.82958190329227</v>
       </c>
       <c r="G23">
-        <v>55.16489908802068</v>
+        <v>0.8020084228535482</v>
       </c>
       <c r="H23">
-        <v>25.60029204017304</v>
+        <v>17.93032184171578</v>
       </c>
       <c r="I23">
-        <v>12.16009977088063</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>12.16009977088052</v>
+      </c>
+      <c r="J23">
+        <v>18.08045154596647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.41062786253845</v>
+        <v>55.56709395988061</v>
       </c>
       <c r="C24">
-        <v>12.87512404990288</v>
+        <v>11.56217602174902</v>
       </c>
       <c r="D24">
-        <v>22.97372440002113</v>
+        <v>22.24124844324798</v>
       </c>
       <c r="E24">
-        <v>65.76738614501346</v>
+        <v>65.34166947099183</v>
       </c>
       <c r="F24">
-        <v>35.45944776787097</v>
+        <v>35.21393973525799</v>
       </c>
       <c r="G24">
-        <v>53.64635339604051</v>
+        <v>0.801906117011476</v>
       </c>
       <c r="H24">
-        <v>25.66008461833945</v>
+        <v>18.08621568745683</v>
       </c>
       <c r="I24">
-        <v>12.40162363983257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>12.40162363983265</v>
+      </c>
+      <c r="J24">
+        <v>18.26100088261108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.33590594027615</v>
+        <v>44.50416919847601</v>
       </c>
       <c r="C25">
-        <v>12.63259935713168</v>
+        <v>6.881427347842273</v>
       </c>
       <c r="D25">
-        <v>25.39607631267654</v>
+        <v>24.93834459560774</v>
       </c>
       <c r="E25">
-        <v>65.87667471211559</v>
+        <v>65.519489880522</v>
       </c>
       <c r="F25">
-        <v>33.42378347623739</v>
+        <v>33.2079446135018</v>
       </c>
       <c r="G25">
-        <v>43.73071624603024</v>
+        <v>0.8024068247997088</v>
       </c>
       <c r="H25">
-        <v>24.4359976660304</v>
+        <v>17.32505665095297</v>
       </c>
       <c r="I25">
-        <v>12.57954909938493</v>
+        <v>12.5795490993851</v>
+      </c>
+      <c r="J25">
+        <v>17.55272733574644</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/loading_percent.xlsx
+++ b/group2 project/results/res_line/loading_percent.xlsx
@@ -406,31 +406,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.00574840379306</v>
+        <v>21.25004918957847</v>
       </c>
       <c r="C2">
-        <v>5.406655925299357</v>
+        <v>2.894004852692718</v>
       </c>
       <c r="D2">
-        <v>31.27054526671736</v>
+        <v>28.71952398889674</v>
       </c>
       <c r="E2">
-        <v>64.72661569258489</v>
+        <v>64.72726527080729</v>
       </c>
       <c r="F2">
-        <v>27.45544108540775</v>
+        <v>27.45237635326557</v>
       </c>
       <c r="G2">
-        <v>0.8034900864571506</v>
+        <v>0.8035723718204869</v>
       </c>
       <c r="H2">
-        <v>15.67845026782888</v>
+        <v>15.55334958792415</v>
       </c>
       <c r="I2">
-        <v>11.76492207051708</v>
+        <v>11.76492207051695</v>
       </c>
       <c r="J2">
-        <v>15.60876182928248</v>
+        <v>15.69700588368856</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -438,31 +438,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.75443657083123</v>
+        <v>12.91032764359433</v>
       </c>
       <c r="C3">
-        <v>9.277548942523994</v>
+        <v>7.180446301491812</v>
       </c>
       <c r="D3">
-        <v>33.3781766207698</v>
+        <v>31.25189154971744</v>
       </c>
       <c r="E3">
-        <v>64.87592704617387</v>
+        <v>64.87660640106319</v>
       </c>
       <c r="F3">
-        <v>25.6542904515203</v>
+        <v>25.65096239551387</v>
       </c>
       <c r="G3">
-        <v>0.8037075902584432</v>
+        <v>0.803803684545715</v>
       </c>
       <c r="H3">
-        <v>15.34780960405789</v>
+        <v>15.20171594488467</v>
       </c>
       <c r="I3">
-        <v>11.91387822353296</v>
+        <v>11.91387822353283</v>
       </c>
       <c r="J3">
-        <v>15.14456624941922</v>
+        <v>15.22430741713245</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -470,31 +470,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.18095187294628</v>
+        <v>9.679497218986368</v>
       </c>
       <c r="C4">
-        <v>12.14174128954348</v>
+        <v>10.35036420107674</v>
       </c>
       <c r="D4">
-        <v>34.83033451928341</v>
+        <v>33.01111778196978</v>
       </c>
       <c r="E4">
-        <v>64.7147544993349</v>
+        <v>64.71543602826131</v>
       </c>
       <c r="F4">
-        <v>24.22098909892054</v>
+        <v>24.2177523677013</v>
       </c>
       <c r="G4">
-        <v>0.8038604260045576</v>
+        <v>0.8039597838511461</v>
       </c>
       <c r="H4">
-        <v>15.11569996229187</v>
+        <v>14.96464539490871</v>
       </c>
       <c r="I4">
-        <v>11.74775628332202</v>
+        <v>11.74775628332204</v>
       </c>
       <c r="J4">
-        <v>14.76055882786771</v>
+        <v>14.83312558573151</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -502,31 +502,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.51296953569128</v>
+        <v>9.97014183677604</v>
       </c>
       <c r="C5">
-        <v>13.43977468804031</v>
+        <v>11.71575512395725</v>
       </c>
       <c r="D5">
-        <v>35.37230503636943</v>
+        <v>33.62026150034059</v>
       </c>
       <c r="E5">
-        <v>64.28927375534926</v>
+        <v>64.28998674927752</v>
       </c>
       <c r="F5">
-        <v>23.46194089096988</v>
+        <v>23.45870343655098</v>
       </c>
       <c r="G5">
-        <v>0.8039497205325926</v>
+        <v>0.8040525171553548</v>
       </c>
       <c r="H5">
-        <v>14.97990030168783</v>
+        <v>14.82361822660791</v>
       </c>
       <c r="I5">
-        <v>11.31390889227744</v>
+        <v>11.31390889227738</v>
       </c>
       <c r="J5">
-        <v>14.50699474181757</v>
+        <v>14.57460341736893</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -534,31 +534,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.20254759236242</v>
+        <v>10.3584346003494</v>
       </c>
       <c r="C6">
-        <v>13.90375123909125</v>
+        <v>12.19066688394368</v>
       </c>
       <c r="D6">
-        <v>35.5040495199581</v>
+        <v>33.76274696693466</v>
       </c>
       <c r="E6">
-        <v>63.97493306172562</v>
+        <v>63.97566787628074</v>
       </c>
       <c r="F6">
-        <v>23.1310121984788</v>
+        <v>23.12776794563901</v>
       </c>
       <c r="G6">
-        <v>0.8039956550362964</v>
+        <v>0.8041002311544542</v>
       </c>
       <c r="H6">
-        <v>14.91007472551373</v>
+        <v>14.75108752742528</v>
       </c>
       <c r="I6">
-        <v>10.99373759213819</v>
+        <v>10.99373759213813</v>
       </c>
       <c r="J6">
-        <v>14.37461255642429</v>
+        <v>14.44009105561576</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -566,31 +566,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.20254759236242</v>
+        <v>10.3584346003494</v>
       </c>
       <c r="C7">
-        <v>13.90375123909125</v>
+        <v>12.19066688394368</v>
       </c>
       <c r="D7">
-        <v>35.5040495199581</v>
+        <v>33.76274696693466</v>
       </c>
       <c r="E7">
-        <v>63.97493306172562</v>
+        <v>63.97566787628074</v>
       </c>
       <c r="F7">
-        <v>23.1310121984788</v>
+        <v>23.12776794563901</v>
       </c>
       <c r="G7">
-        <v>0.8039956550362964</v>
+        <v>0.8041002311544542</v>
       </c>
       <c r="H7">
-        <v>14.91007472551373</v>
+        <v>14.75108752742528</v>
       </c>
       <c r="I7">
-        <v>10.99373759213819</v>
+        <v>10.99373759213813</v>
       </c>
       <c r="J7">
-        <v>14.37461255642429</v>
+        <v>14.44009105561576</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -598,31 +598,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.7353268892185</v>
+        <v>10.14873937099412</v>
       </c>
       <c r="C8">
-        <v>13.55368534663899</v>
+        <v>11.94339324343611</v>
       </c>
       <c r="D8">
-        <v>35.23247391470785</v>
+        <v>33.59598109348281</v>
       </c>
       <c r="E8">
-        <v>63.91619256968296</v>
+        <v>63.91687620202312</v>
       </c>
       <c r="F8">
-        <v>23.212321715857</v>
+        <v>23.20931105439569</v>
       </c>
       <c r="G8">
-        <v>0.804001945830808</v>
+        <v>0.804098633370848</v>
       </c>
       <c r="H8">
-        <v>14.90065294856641</v>
+        <v>14.7536587447172</v>
       </c>
       <c r="I8">
-        <v>10.93407342304823</v>
+        <v>10.93407342304825</v>
       </c>
       <c r="J8">
-        <v>14.37935692228597</v>
+        <v>14.44800621418932</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -630,31 +630,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.735994375714355</v>
+        <v>10.18153019857932</v>
       </c>
       <c r="C9">
-        <v>11.03704412334141</v>
+        <v>9.105897723562899</v>
       </c>
       <c r="D9">
-        <v>33.88104715154159</v>
+        <v>31.92158654744843</v>
       </c>
       <c r="E9">
-        <v>63.82408289527589</v>
+        <v>63.82480882473538</v>
       </c>
       <c r="F9">
-        <v>24.39216098198252</v>
+        <v>24.38890163713014</v>
       </c>
       <c r="G9">
-        <v>0.8039041811260849</v>
+        <v>0.8040034960364142</v>
       </c>
       <c r="H9">
-        <v>15.04926748216267</v>
+        <v>14.8982783944484</v>
       </c>
       <c r="I9">
-        <v>10.84232482539304</v>
+        <v>10.84232482539293</v>
       </c>
       <c r="J9">
-        <v>14.64084290152096</v>
+        <v>14.71440285107261</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -662,31 +662,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.0156711176465</v>
+        <v>21.60908680432514</v>
       </c>
       <c r="C10">
-        <v>4.707876295773831</v>
+        <v>2.620652844588401</v>
       </c>
       <c r="D10">
-        <v>30.42768651391658</v>
+        <v>28.30620006851873</v>
       </c>
       <c r="E10">
-        <v>64.11536476868208</v>
+        <v>64.11590622003195</v>
       </c>
       <c r="F10">
-        <v>27.32063191718655</v>
+        <v>27.31823870787008</v>
       </c>
       <c r="G10">
-        <v>0.8035560914389115</v>
+        <v>0.8036206907430595</v>
       </c>
       <c r="H10">
-        <v>15.57838551873557</v>
+        <v>15.48017358462991</v>
       </c>
       <c r="I10">
-        <v>11.1431774910402</v>
+        <v>11.14317749104015</v>
       </c>
       <c r="J10">
-        <v>15.45158317810716</v>
+        <v>15.55592419136711</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -694,31 +694,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.83662032927777</v>
+        <v>35.96340458994777</v>
       </c>
       <c r="C11">
-        <v>1.909315082485758</v>
+        <v>3.998623159941701</v>
       </c>
       <c r="D11">
-        <v>26.97982330767995</v>
+        <v>24.80729071909315</v>
       </c>
       <c r="E11">
-        <v>64.31748294150047</v>
+        <v>64.31782551968915</v>
       </c>
       <c r="F11">
-        <v>30.13269572088112</v>
+        <v>30.13175860908996</v>
       </c>
       <c r="G11">
-        <v>0.8030889045471605</v>
+        <v>0.8031116548094855</v>
       </c>
       <c r="H11">
-        <v>16.28890821591982</v>
+        <v>16.2543198403162</v>
       </c>
       <c r="I11">
         <v>11.35321411401343</v>
       </c>
       <c r="J11">
-        <v>16.32405312247012</v>
+        <v>16.46417785932586</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -726,31 +726,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.19248635998322</v>
+        <v>42.78201381643699</v>
       </c>
       <c r="C12">
-        <v>4.488631133522677</v>
+        <v>6.844962290645418</v>
       </c>
       <c r="D12">
-        <v>25.34157978216253</v>
+        <v>22.9723535430511</v>
       </c>
       <c r="E12">
-        <v>64.22458483150348</v>
+        <v>64.2248662800219</v>
       </c>
       <c r="F12">
-        <v>31.47310274235238</v>
+        <v>31.4729681098063</v>
       </c>
       <c r="G12">
-        <v>0.8028263675394708</v>
+        <v>0.8028294841862911</v>
       </c>
       <c r="H12">
-        <v>16.64359121205858</v>
+        <v>16.63885378937666</v>
       </c>
       <c r="I12">
-        <v>11.2610013146254</v>
+        <v>11.26100131462553</v>
       </c>
       <c r="J12">
-        <v>16.74687658909011</v>
+        <v>16.90454976151511</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -758,31 +758,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.32719058235018</v>
+        <v>44.71484321558669</v>
       </c>
       <c r="C13">
-        <v>5.595334694476142</v>
+        <v>7.331762562171729</v>
       </c>
       <c r="D13">
-        <v>23.26455278702272</v>
+        <v>21.525746664147</v>
       </c>
       <c r="E13">
-        <v>64.121915647606</v>
+        <v>64.12208190309023</v>
       </c>
       <c r="F13">
-        <v>32.51276991865871</v>
+        <v>32.51298011629294</v>
       </c>
       <c r="G13">
-        <v>0.802643086857987</v>
+        <v>0.8026383913957232</v>
       </c>
       <c r="H13">
-        <v>16.75445366199545</v>
+        <v>16.76152620307452</v>
       </c>
       <c r="I13">
-        <v>11.15818699286315</v>
+        <v>11.15818699286314</v>
       </c>
       <c r="J13">
-        <v>17.07946580066017</v>
+        <v>17.23596960831005</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -790,31 +790,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40.0751266815424</v>
+        <v>42.51013335544093</v>
       </c>
       <c r="C14">
-        <v>4.868404966265146</v>
+        <v>6.117021462654916</v>
       </c>
       <c r="D14">
-        <v>22.40596499826737</v>
+        <v>21.15081052466358</v>
       </c>
       <c r="E14">
-        <v>63.97614577798745</v>
+        <v>63.97626703671029</v>
       </c>
       <c r="F14">
-        <v>32.69353343620037</v>
+        <v>32.69357590160311</v>
       </c>
       <c r="G14">
-        <v>0.8026405378665943</v>
+        <v>0.802639594981338</v>
       </c>
       <c r="H14">
-        <v>16.80291090235071</v>
+        <v>16.80430327510293</v>
       </c>
       <c r="I14">
-        <v>11.01024835274067</v>
+        <v>11.01024835274076</v>
       </c>
       <c r="J14">
-        <v>17.13014030856796</v>
+        <v>17.26042288175982</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -822,31 +822,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.08909249574054</v>
+        <v>40.13138671346117</v>
       </c>
       <c r="C15">
-        <v>3.98050971963545</v>
+        <v>5.026749999261418</v>
       </c>
       <c r="D15">
-        <v>22.34164883420102</v>
+        <v>21.28302630779413</v>
       </c>
       <c r="E15">
-        <v>63.76035796979147</v>
+        <v>63.76046960007713</v>
       </c>
       <c r="F15">
-        <v>32.42981832329124</v>
+        <v>32.42972522919675</v>
       </c>
       <c r="G15">
-        <v>0.8027148886564126</v>
+        <v>0.8027169742672819</v>
       </c>
       <c r="H15">
-        <v>16.76298755041979</v>
+        <v>16.75994288772146</v>
       </c>
       <c r="I15">
-        <v>10.79053987928664</v>
+        <v>10.79053987928663</v>
       </c>
       <c r="J15">
-        <v>17.01435140848129</v>
+        <v>17.12857295780628</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -854,31 +854,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.26149481819314</v>
+        <v>39.24629953925729</v>
       </c>
       <c r="C16">
-        <v>3.556732210434538</v>
+        <v>4.571881288312859</v>
       </c>
       <c r="D16">
-        <v>22.51546181711697</v>
+        <v>21.4837303893533</v>
       </c>
       <c r="E16">
-        <v>63.97172117234084</v>
+        <v>63.9718326719511</v>
       </c>
       <c r="F16">
-        <v>32.43237719092593</v>
+        <v>32.43222462941379</v>
       </c>
       <c r="G16">
-        <v>0.8027132760385361</v>
+        <v>0.8027166936180201</v>
       </c>
       <c r="H16">
-        <v>16.79858975509996</v>
+        <v>16.79362326639581</v>
       </c>
       <c r="I16">
-        <v>11.00527636592399</v>
+        <v>11.00527636592407</v>
       </c>
       <c r="J16">
-        <v>17.04707909745907</v>
+        <v>17.15839448815192</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -886,31 +886,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.35783388883655</v>
+        <v>38.4475885612055</v>
       </c>
       <c r="C17">
-        <v>3.0893018227153</v>
+        <v>4.15484224715394</v>
       </c>
       <c r="D17">
-        <v>22.8172647260441</v>
+        <v>21.72763845282828</v>
       </c>
       <c r="E17">
-        <v>64.2460941056861</v>
+        <v>64.24621479399441</v>
       </c>
       <c r="F17">
-        <v>32.44860957968994</v>
+        <v>32.44837863882517</v>
       </c>
       <c r="G17">
-        <v>0.8027052233037526</v>
+        <v>0.8027103938138469</v>
       </c>
       <c r="H17">
-        <v>16.83761547454329</v>
+        <v>16.83012774910791</v>
       </c>
       <c r="I17">
-        <v>11.28407806775023</v>
+        <v>11.2840780677501</v>
       </c>
       <c r="J17">
-        <v>17.08852182460097</v>
+        <v>17.20328707664975</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -918,31 +918,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.19734972871832</v>
+        <v>34.30676021674427</v>
       </c>
       <c r="C18">
-        <v>1.449321647755522</v>
+        <v>2.461203395444084</v>
       </c>
       <c r="D18">
-        <v>23.92250614318649</v>
+        <v>22.80651335650802</v>
       </c>
       <c r="E18">
-        <v>64.22091453376845</v>
+        <v>64.22106499158325</v>
       </c>
       <c r="F18">
-        <v>31.59718335971469</v>
+        <v>31.59667313744858</v>
       </c>
       <c r="G18">
-        <v>0.8028746485147885</v>
+        <v>0.8028864103942324</v>
       </c>
       <c r="H18">
-        <v>16.56720189253091</v>
+        <v>16.5501393911906</v>
       </c>
       <c r="I18">
-        <v>11.25715518253373</v>
+        <v>11.25715518253381</v>
       </c>
       <c r="J18">
-        <v>16.79572934269442</v>
+        <v>16.90741996719354</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -950,31 +950,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.45031951169204</v>
+        <v>32.47660520622198</v>
       </c>
       <c r="C19">
-        <v>0.9571361887602855</v>
+        <v>1.805748162548659</v>
       </c>
       <c r="D19">
-        <v>24.69023727667108</v>
+        <v>23.61016235901085</v>
       </c>
       <c r="E19">
-        <v>64.34450978906148</v>
+        <v>64.34466919717065</v>
       </c>
       <c r="F19">
-        <v>31.07055287633506</v>
+        <v>31.0699473445499</v>
       </c>
       <c r="G19">
-        <v>0.8029665521772608</v>
+        <v>0.8029807701998505</v>
       </c>
       <c r="H19">
-        <v>16.35695428907853</v>
+        <v>16.33611874443728</v>
       </c>
       <c r="I19">
-        <v>11.38191899645507</v>
+        <v>11.38191899645494</v>
       </c>
       <c r="J19">
-        <v>16.64611746749298</v>
+        <v>16.7527961260207</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -982,31 +982,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.62273501801296</v>
+        <v>36.8314265070984</v>
       </c>
       <c r="C20">
-        <v>2.357621737117289</v>
+        <v>3.988003953330698</v>
       </c>
       <c r="D20">
-        <v>25.26363581061207</v>
+        <v>23.58074092501053</v>
       </c>
       <c r="E20">
-        <v>64.32027206455582</v>
+        <v>64.32050420823153</v>
       </c>
       <c r="F20">
-        <v>31.07561657621214</v>
+        <v>31.07502308531781</v>
       </c>
       <c r="G20">
-        <v>0.8029381961502694</v>
+        <v>0.8029521284003283</v>
       </c>
       <c r="H20">
-        <v>16.31292826804184</v>
+        <v>16.29193485654722</v>
       </c>
       <c r="I20">
-        <v>11.35743542684321</v>
+        <v>11.35743542684315</v>
       </c>
       <c r="J20">
-        <v>16.62457650807969</v>
+        <v>16.76407338034473</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>43.55789453801648</v>
+        <v>47.89935755655275</v>
       </c>
       <c r="C21">
-        <v>6.763953893995911</v>
+        <v>8.985080613704515</v>
       </c>
       <c r="D21">
-        <v>24.14046160384673</v>
+        <v>21.92480719668604</v>
       </c>
       <c r="E21">
-        <v>64.45681424965318</v>
+        <v>64.45701456332047</v>
       </c>
       <c r="F21">
-        <v>32.45471418825817</v>
+        <v>32.45529132187305</v>
       </c>
       <c r="G21">
-        <v>0.8026029619365799</v>
+        <v>0.8025900455085839</v>
       </c>
       <c r="H21">
-        <v>17.00046803783838</v>
+        <v>17.0201041155886</v>
       </c>
       <c r="I21">
-        <v>11.49851977318413</v>
+        <v>11.49851977318397</v>
       </c>
       <c r="J21">
-        <v>17.11976137228981</v>
+        <v>17.2907316068616</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.59397651816207</v>
+        <v>54.94886710915529</v>
       </c>
       <c r="C22">
-        <v>9.200367139560164</v>
+        <v>11.92641056332669</v>
       </c>
       <c r="D22">
-        <v>23.19587887716594</v>
+        <v>20.49367735581331</v>
       </c>
       <c r="E22">
-        <v>64.76800245948809</v>
+        <v>64.76816533872685</v>
       </c>
       <c r="F22">
-        <v>33.79788306765032</v>
+        <v>33.79970625650883</v>
       </c>
       <c r="G22">
-        <v>0.8022745402916538</v>
+        <v>0.8022355275288584</v>
       </c>
       <c r="H22">
-        <v>17.5253797040983</v>
+        <v>17.58469434207144</v>
       </c>
       <c r="I22">
-        <v>11.81679440829345</v>
+        <v>11.81679440829343</v>
       </c>
       <c r="J22">
-        <v>17.64768397876634</v>
+        <v>17.83895110264013</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>54.1476718558423</v>
+        <v>59.93827501442647</v>
       </c>
       <c r="C23">
-        <v>11.02449637078702</v>
+        <v>13.96319389979013</v>
       </c>
       <c r="D23">
-        <v>22.39622140936462</v>
+        <v>19.49502836351401</v>
       </c>
       <c r="E23">
-        <v>65.10445266431802</v>
+        <v>65.10457009485863</v>
       </c>
       <c r="F23">
-        <v>34.82958190329227</v>
+        <v>34.83248971952859</v>
       </c>
       <c r="G23">
-        <v>0.8020084228535482</v>
+        <v>0.8019482501542721</v>
       </c>
       <c r="H23">
-        <v>17.93032184171578</v>
+        <v>18.02180875813952</v>
       </c>
       <c r="I23">
-        <v>12.16009977088052</v>
+        <v>12.16009977088045</v>
       </c>
       <c r="J23">
-        <v>18.08045154596647</v>
+        <v>18.28677549478493</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>55.56709395988061</v>
+        <v>61.58530534793537</v>
       </c>
       <c r="C24">
-        <v>11.56217602174902</v>
+        <v>14.61375400970072</v>
       </c>
       <c r="D24">
-        <v>22.24124844324798</v>
+        <v>19.2321711853004</v>
       </c>
       <c r="E24">
-        <v>65.34166947099183</v>
+        <v>65.34177410030624</v>
       </c>
       <c r="F24">
-        <v>35.21393973525799</v>
+        <v>35.21727320327172</v>
       </c>
       <c r="G24">
-        <v>0.801906117011476</v>
+        <v>0.8018379772456773</v>
       </c>
       <c r="H24">
-        <v>18.08621568745683</v>
+        <v>18.18981620445143</v>
       </c>
       <c r="I24">
-        <v>12.40162363983265</v>
+        <v>12.4016236398327</v>
       </c>
       <c r="J24">
-        <v>18.26100088261108</v>
+        <v>18.47194534792943</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1142,31 +1142,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>44.50416919847601</v>
+        <v>50.31541926115888</v>
       </c>
       <c r="C25">
-        <v>6.881427347842273</v>
+        <v>9.851889618845453</v>
       </c>
       <c r="D25">
-        <v>24.93834459560774</v>
+        <v>21.97773341698525</v>
       </c>
       <c r="E25">
-        <v>65.519489880522</v>
+        <v>65.51972925621712</v>
       </c>
       <c r="F25">
-        <v>33.2079446135018</v>
+        <v>33.20888254968744</v>
       </c>
       <c r="G25">
-        <v>0.8024068247997088</v>
+        <v>0.8023863592409626</v>
       </c>
       <c r="H25">
-        <v>17.32505665095297</v>
+        <v>17.35617218135903</v>
       </c>
       <c r="I25">
-        <v>12.5795490993851</v>
+        <v>12.57954909938501</v>
       </c>
       <c r="J25">
-        <v>17.55272733574644</v>
+        <v>17.72354820145952</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/loading_percent.xlsx
+++ b/group2 project/results/res_line/loading_percent.xlsx
@@ -406,31 +406,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.25004918957847</v>
+        <v>4.377150980694014</v>
       </c>
       <c r="C2">
-        <v>2.894004852692718</v>
+        <v>3.379914246651969</v>
       </c>
       <c r="D2">
-        <v>28.71952398889674</v>
+        <v>9.449768375945162</v>
       </c>
       <c r="E2">
-        <v>64.72726527080729</v>
+        <v>18.47399760305157</v>
       </c>
       <c r="F2">
-        <v>27.45237635326557</v>
+        <v>7.231757402547101</v>
       </c>
       <c r="G2">
-        <v>0.8035723718204869</v>
+        <v>2.960181145736489</v>
       </c>
       <c r="H2">
-        <v>15.55334958792415</v>
+        <v>2.507522494578346</v>
       </c>
       <c r="I2">
-        <v>11.76492207051695</v>
+        <v>3.414291668632348</v>
       </c>
       <c r="J2">
-        <v>15.69700588368856</v>
+        <v>1.476604685401425</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -438,31 +438,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.91032764359433</v>
+        <v>2.751815514474119</v>
       </c>
       <c r="C3">
-        <v>7.180446301491812</v>
+        <v>4.284371319845489</v>
       </c>
       <c r="D3">
-        <v>31.25189154971744</v>
+        <v>10.1342376280923</v>
       </c>
       <c r="E3">
-        <v>64.87660640106319</v>
+        <v>18.52376919492934</v>
       </c>
       <c r="F3">
-        <v>25.65096239551387</v>
+        <v>6.767798014299466</v>
       </c>
       <c r="G3">
-        <v>0.803803684545715</v>
+        <v>2.960251473765107</v>
       </c>
       <c r="H3">
-        <v>15.20171594488467</v>
+        <v>2.614411001142907</v>
       </c>
       <c r="I3">
-        <v>11.91387822353283</v>
+        <v>3.454475047340116</v>
       </c>
       <c r="J3">
-        <v>15.22430741713245</v>
+        <v>1.618687900100354</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -470,31 +470,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.679497218986368</v>
+        <v>2.757074984518666</v>
       </c>
       <c r="C4">
-        <v>10.35036420107674</v>
+        <v>4.259200753344929</v>
       </c>
       <c r="D4">
-        <v>33.01111778196978</v>
+        <v>9.718818166843116</v>
       </c>
       <c r="E4">
-        <v>64.71543602826131</v>
+        <v>18.48597518109716</v>
       </c>
       <c r="F4">
-        <v>24.2177523677013</v>
+        <v>6.397200910192439</v>
       </c>
       <c r="G4">
-        <v>0.8039597838511461</v>
+        <v>2.960311570509332</v>
       </c>
       <c r="H4">
-        <v>14.96464539490871</v>
+        <v>2.70568851398221</v>
       </c>
       <c r="I4">
-        <v>11.74775628332204</v>
+        <v>3.409662268348357</v>
       </c>
       <c r="J4">
-        <v>14.83312558573151</v>
+        <v>1.515560131842274</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -502,31 +502,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.97014183677604</v>
+        <v>2.763619456296708</v>
       </c>
       <c r="C5">
-        <v>11.71575512395725</v>
+        <v>4.315873001313871</v>
       </c>
       <c r="D5">
-        <v>33.62026150034059</v>
+        <v>9.581627505098865</v>
       </c>
       <c r="E5">
-        <v>64.28998674927752</v>
+        <v>18.37166118868871</v>
       </c>
       <c r="F5">
-        <v>23.45870343655098</v>
+        <v>6.20059484244469</v>
       </c>
       <c r="G5">
-        <v>0.8040525171553548</v>
+        <v>2.960342804261893</v>
       </c>
       <c r="H5">
-        <v>14.82361822660791</v>
+        <v>2.753176120253797</v>
       </c>
       <c r="I5">
-        <v>11.31390889227738</v>
+        <v>3.292756276489932</v>
       </c>
       <c r="J5">
-        <v>14.57460341736893</v>
+        <v>1.617321895261638</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -534,31 +534,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.3584346003494</v>
+        <v>2.790119313091753</v>
       </c>
       <c r="C6">
-        <v>12.19066688394368</v>
+        <v>4.419894277330862</v>
       </c>
       <c r="D6">
-        <v>33.76274696693466</v>
+        <v>9.615804525064506</v>
       </c>
       <c r="E6">
-        <v>63.97566787628074</v>
+        <v>18.28610256189373</v>
       </c>
       <c r="F6">
-        <v>23.12776794563901</v>
+        <v>6.114846664261417</v>
       </c>
       <c r="G6">
-        <v>0.8041002311544542</v>
+        <v>2.960355899475239</v>
       </c>
       <c r="H6">
-        <v>14.75108752742528</v>
+        <v>2.77307833132996</v>
       </c>
       <c r="I6">
-        <v>10.99373759213813</v>
+        <v>3.206609321741567</v>
       </c>
       <c r="J6">
-        <v>14.44009105561576</v>
+        <v>1.643792517330155</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -566,31 +566,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.3584346003494</v>
+        <v>3.457248895295045</v>
       </c>
       <c r="C7">
-        <v>12.19066688394368</v>
+        <v>5.193241574679397</v>
       </c>
       <c r="D7">
-        <v>33.76274696693466</v>
+        <v>10.50432396482842</v>
       </c>
       <c r="E7">
-        <v>63.97566787628074</v>
+        <v>18.2858021046148</v>
       </c>
       <c r="F7">
-        <v>23.12776794563901</v>
+        <v>6.114857602873973</v>
       </c>
       <c r="G7">
-        <v>0.8041002311544542</v>
+        <v>2.960350680735095</v>
       </c>
       <c r="H7">
-        <v>14.75108752742528</v>
+        <v>2.765145861482968</v>
       </c>
       <c r="I7">
-        <v>10.99373759213813</v>
+        <v>3.206609321741611</v>
       </c>
       <c r="J7">
-        <v>14.44009105561576</v>
+        <v>1.698448044258332</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -598,31 +598,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.14873937099412</v>
+        <v>3.733501088231413</v>
       </c>
       <c r="C8">
-        <v>11.94339324343611</v>
+        <v>5.397867408501163</v>
       </c>
       <c r="D8">
-        <v>33.59598109348281</v>
+        <v>10.75497804858412</v>
       </c>
       <c r="E8">
-        <v>63.91687620202312</v>
+        <v>18.26904221803913</v>
       </c>
       <c r="F8">
-        <v>23.20931105439569</v>
+        <v>6.136077023567042</v>
       </c>
       <c r="G8">
-        <v>0.804098633370848</v>
+        <v>2.960345865583092</v>
       </c>
       <c r="H8">
-        <v>14.7536587447172</v>
+        <v>2.757787240833748</v>
       </c>
       <c r="I8">
-        <v>10.93407342304825</v>
+        <v>3.190568529478301</v>
       </c>
       <c r="J8">
-        <v>14.44800621418932</v>
+        <v>1.812755433389108</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -630,31 +630,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.18153019857932</v>
+        <v>2.98048710186955</v>
       </c>
       <c r="C9">
-        <v>9.105897723562899</v>
+        <v>4.972173630366306</v>
       </c>
       <c r="D9">
-        <v>31.92158654744843</v>
+        <v>10.59690162634624</v>
       </c>
       <c r="E9">
-        <v>63.82480882473538</v>
+        <v>18.23808155454232</v>
       </c>
       <c r="F9">
-        <v>24.38890163713014</v>
+        <v>6.442051925991617</v>
       </c>
       <c r="G9">
-        <v>0.8040034960364142</v>
+        <v>2.960299965399589</v>
       </c>
       <c r="H9">
-        <v>14.8982783944484</v>
+        <v>2.688024012162442</v>
       </c>
       <c r="I9">
-        <v>10.84232482539293</v>
+        <v>3.165909919073763</v>
       </c>
       <c r="J9">
-        <v>14.71440285107261</v>
+        <v>1.886585556293671</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -662,31 +662,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.60908680432514</v>
+        <v>4.494599533892234</v>
       </c>
       <c r="C10">
-        <v>2.620652844588401</v>
+        <v>3.320709194791647</v>
       </c>
       <c r="D10">
-        <v>28.30620006851873</v>
+        <v>9.329830122772751</v>
       </c>
       <c r="E10">
-        <v>64.11590622003195</v>
+        <v>18.30524271684992</v>
       </c>
       <c r="F10">
-        <v>27.31823870787008</v>
+        <v>7.197565067547022</v>
       </c>
       <c r="G10">
-        <v>0.8036206907430595</v>
+        <v>2.960187414781246</v>
       </c>
       <c r="H10">
-        <v>15.48017358462991</v>
+        <v>2.516972042956099</v>
       </c>
       <c r="I10">
-        <v>11.14317749104015</v>
+        <v>3.246804273437029</v>
       </c>
       <c r="J10">
-        <v>15.55592419136711</v>
+        <v>1.489390065793366</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -694,31 +694,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.96340458994777</v>
+        <v>9.329644214908447</v>
       </c>
       <c r="C11">
-        <v>3.998623159941701</v>
+        <v>2.428127632827539</v>
       </c>
       <c r="D11">
-        <v>24.80729071909315</v>
+        <v>7.808595192214611</v>
       </c>
       <c r="E11">
-        <v>64.31782551968915</v>
+        <v>18.34788288210802</v>
       </c>
       <c r="F11">
-        <v>30.13175860908996</v>
+        <v>7.917319569547963</v>
       </c>
       <c r="G11">
-        <v>0.8031116548094855</v>
+        <v>2.960074358164766</v>
       </c>
       <c r="H11">
-        <v>16.2543198403162</v>
+        <v>2.345059120591833</v>
       </c>
       <c r="I11">
-        <v>11.35321411401343</v>
+        <v>3.303339636634402</v>
       </c>
       <c r="J11">
-        <v>16.46417785932586</v>
+        <v>1.020937903443516</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -726,31 +726,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>42.78201381643699</v>
+        <v>11.14834013443572</v>
       </c>
       <c r="C12">
-        <v>6.844962290645418</v>
+        <v>2.557384939984241</v>
       </c>
       <c r="D12">
-        <v>22.9723535430511</v>
+        <v>7.320617970422393</v>
       </c>
       <c r="E12">
-        <v>64.2248662800219</v>
+        <v>18.3155584387526</v>
       </c>
       <c r="F12">
-        <v>31.4729681098063</v>
+        <v>8.258310533330446</v>
       </c>
       <c r="G12">
-        <v>0.8028294841862911</v>
+        <v>2.960017830615906</v>
       </c>
       <c r="H12">
-        <v>16.63885378937666</v>
+        <v>2.273604417646808</v>
       </c>
       <c r="I12">
-        <v>11.26100131462553</v>
+        <v>3.278512933571507</v>
       </c>
       <c r="J12">
-        <v>16.90454976151511</v>
+        <v>0.8988582028775227</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -758,31 +758,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44.71484321558669</v>
+        <v>11.65151335541934</v>
       </c>
       <c r="C13">
-        <v>7.331762562171729</v>
+        <v>2.599030371490857</v>
       </c>
       <c r="D13">
-        <v>21.525746664147</v>
+        <v>6.93684330454513</v>
       </c>
       <c r="E13">
-        <v>64.12208190309023</v>
+        <v>18.28188141503194</v>
       </c>
       <c r="F13">
-        <v>32.51298011629294</v>
+        <v>8.522244728219166</v>
       </c>
       <c r="G13">
-        <v>0.8026383913957232</v>
+        <v>2.959973387653754</v>
       </c>
       <c r="H13">
-        <v>16.76152620307452</v>
+        <v>2.372036402585024</v>
       </c>
       <c r="I13">
-        <v>11.15818699286314</v>
+        <v>3.25084277283168</v>
       </c>
       <c r="J13">
-        <v>17.23596960831005</v>
+        <v>0.8027070478866629</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -790,31 +790,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>42.51013335544093</v>
+        <v>11.05542827332309</v>
       </c>
       <c r="C14">
-        <v>6.117021462654916</v>
+        <v>2.497707232187481</v>
       </c>
       <c r="D14">
-        <v>21.15081052466358</v>
+        <v>6.835572182382715</v>
       </c>
       <c r="E14">
-        <v>63.97626703671029</v>
+        <v>18.24054239096546</v>
       </c>
       <c r="F14">
-        <v>32.69357590160311</v>
+        <v>8.568401783898235</v>
       </c>
       <c r="G14">
-        <v>0.802639594981338</v>
+        <v>2.959965675474017</v>
       </c>
       <c r="H14">
-        <v>16.80430327510293</v>
+        <v>2.595277714579796</v>
       </c>
       <c r="I14">
-        <v>11.01024835274076</v>
+        <v>3.21104898746755</v>
       </c>
       <c r="J14">
-        <v>17.26042288175982</v>
+        <v>0.7861683681731</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -822,31 +822,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.13138671346117</v>
+        <v>10.42371651852407</v>
       </c>
       <c r="C15">
-        <v>5.026749999261418</v>
+        <v>2.442104697467491</v>
       </c>
       <c r="D15">
-        <v>21.28302630779413</v>
+        <v>6.866949929700393</v>
       </c>
       <c r="E15">
-        <v>63.76046960007713</v>
+        <v>18.18205877504704</v>
       </c>
       <c r="F15">
-        <v>32.42972522919675</v>
+        <v>8.501862865039907</v>
       </c>
       <c r="G15">
-        <v>0.8027169742672819</v>
+        <v>2.959977087982375</v>
       </c>
       <c r="H15">
-        <v>16.75994288772146</v>
+        <v>2.722068456971865</v>
       </c>
       <c r="I15">
-        <v>10.79053987928663</v>
+        <v>3.151996471117923</v>
       </c>
       <c r="J15">
-        <v>17.12857295780628</v>
+        <v>0.8113920867200061</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -854,31 +854,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.24629953925729</v>
+        <v>10.1747940245792</v>
       </c>
       <c r="C16">
-        <v>4.571881288312859</v>
+        <v>2.428030667570541</v>
       </c>
       <c r="D16">
-        <v>21.4837303893533</v>
+        <v>6.922923344991936</v>
       </c>
       <c r="E16">
-        <v>63.9718326719511</v>
+        <v>18.24060236535438</v>
       </c>
       <c r="F16">
-        <v>32.43222462941379</v>
+        <v>8.502499199550655</v>
       </c>
       <c r="G16">
-        <v>0.8027166936180201</v>
+        <v>2.959976763736356</v>
       </c>
       <c r="H16">
-        <v>16.79362326639581</v>
+        <v>2.765078240612815</v>
       </c>
       <c r="I16">
-        <v>11.00527636592407</v>
+        <v>3.20971201073794</v>
       </c>
       <c r="J16">
-        <v>17.15839448815192</v>
+        <v>0.8104340253762247</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -886,31 +886,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.4475885612055</v>
+        <v>9.946360435311478</v>
       </c>
       <c r="C17">
-        <v>4.15484224715394</v>
+        <v>2.420897897676972</v>
       </c>
       <c r="D17">
-        <v>21.72763845282828</v>
+        <v>6.991290687205554</v>
       </c>
       <c r="E17">
-        <v>64.24621479399441</v>
+        <v>18.31654775833172</v>
       </c>
       <c r="F17">
-        <v>32.44837863882517</v>
+        <v>8.506557338280803</v>
       </c>
       <c r="G17">
-        <v>0.8027103938138469</v>
+        <v>2.959975800024422</v>
       </c>
       <c r="H17">
-        <v>16.83012774910791</v>
+        <v>2.796948647756782</v>
       </c>
       <c r="I17">
-        <v>11.2840780677501</v>
+        <v>3.284725098375376</v>
       </c>
       <c r="J17">
-        <v>17.20328707664975</v>
+        <v>0.8079992017358351</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -918,31 +918,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.30676021674427</v>
+        <v>8.840329375667626</v>
       </c>
       <c r="C18">
-        <v>2.461203395444084</v>
+        <v>2.45264855696137</v>
       </c>
       <c r="D18">
-        <v>22.80651335650802</v>
+        <v>7.275736778961825</v>
       </c>
       <c r="E18">
-        <v>64.22106499158325</v>
+        <v>18.31381049561193</v>
       </c>
       <c r="F18">
-        <v>31.59667313744858</v>
+        <v>8.2906262830847</v>
       </c>
       <c r="G18">
-        <v>0.8028864103942324</v>
+        <v>2.960011966157307</v>
       </c>
       <c r="H18">
-        <v>16.5501393911906</v>
+        <v>2.815457430931946</v>
       </c>
       <c r="I18">
-        <v>11.25715518253381</v>
+        <v>3.277477626738684</v>
       </c>
       <c r="J18">
-        <v>16.90741996719354</v>
+        <v>0.8869254641439041</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -950,31 +950,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.47660520622198</v>
+        <v>8.350794688711122</v>
       </c>
       <c r="C19">
-        <v>1.805748162548659</v>
+        <v>2.491750244930937</v>
       </c>
       <c r="D19">
-        <v>23.61016235901085</v>
+        <v>7.490444667626228</v>
       </c>
       <c r="E19">
-        <v>64.34466919717065</v>
+        <v>18.35066629042786</v>
       </c>
       <c r="F19">
-        <v>31.0699473445499</v>
+        <v>8.156694602634566</v>
       </c>
       <c r="G19">
-        <v>0.8029807701998505</v>
+        <v>2.960034132227903</v>
       </c>
       <c r="H19">
-        <v>16.33611874443728</v>
+        <v>2.74589474052704</v>
       </c>
       <c r="I19">
-        <v>11.38191899645494</v>
+        <v>3.311069770235996</v>
       </c>
       <c r="J19">
-        <v>16.7527961260207</v>
+        <v>0.9349190441063394</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -982,31 +982,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.8314265070984</v>
+        <v>9.540798834865871</v>
       </c>
       <c r="C20">
-        <v>3.988003953330698</v>
+        <v>2.424662992557593</v>
       </c>
       <c r="D20">
-        <v>23.58074092501053</v>
+        <v>7.482688034052917</v>
       </c>
       <c r="E20">
-        <v>64.32050420823153</v>
+        <v>18.34398180812121</v>
       </c>
       <c r="F20">
-        <v>31.07502308531781</v>
+        <v>8.157681858686605</v>
       </c>
       <c r="G20">
-        <v>0.8029521284003283</v>
+        <v>2.96003443778853</v>
       </c>
       <c r="H20">
-        <v>16.29193485654722</v>
+        <v>2.45000274239669</v>
       </c>
       <c r="I20">
-        <v>11.35743542684315</v>
+        <v>3.304476368388815</v>
       </c>
       <c r="J20">
-        <v>16.76407338034473</v>
+        <v>0.9348594902234381</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>47.89935755655275</v>
+        <v>12.49912417773591</v>
       </c>
       <c r="C21">
-        <v>8.985080613704515</v>
+        <v>2.899309808985555</v>
       </c>
       <c r="D21">
-        <v>21.92480719668604</v>
+        <v>7.047593734445005</v>
       </c>
       <c r="E21">
-        <v>64.45701456332047</v>
+        <v>18.37502472245938</v>
       </c>
       <c r="F21">
-        <v>32.45529132187305</v>
+        <v>8.506950527730137</v>
       </c>
       <c r="G21">
-        <v>0.8025900455085839</v>
+        <v>2.959975549455284</v>
       </c>
       <c r="H21">
-        <v>17.0201041155886</v>
+        <v>2.203215430056046</v>
       </c>
       <c r="I21">
-        <v>11.49851977318397</v>
+        <v>3.342478804598323</v>
       </c>
       <c r="J21">
-        <v>17.2907316068616</v>
+        <v>0.8071408605508809</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>54.94886710915529</v>
+        <v>14.35414606553618</v>
       </c>
       <c r="C22">
-        <v>11.92641056332669</v>
+        <v>3.508940837538074</v>
       </c>
       <c r="D22">
-        <v>20.49367735581331</v>
+        <v>6.676126401232599</v>
       </c>
       <c r="E22">
-        <v>64.76816533872685</v>
+        <v>18.45452127466651</v>
       </c>
       <c r="F22">
-        <v>33.79970625650883</v>
+        <v>8.845858291679059</v>
       </c>
       <c r="G22">
-        <v>0.8022355275288584</v>
+        <v>2.959916829024916</v>
       </c>
       <c r="H22">
-        <v>17.58469434207144</v>
+        <v>2.106081306190618</v>
       </c>
       <c r="I22">
-        <v>11.81679440829343</v>
+        <v>3.428282708650405</v>
       </c>
       <c r="J22">
-        <v>17.83895110264013</v>
+        <v>0.6798576488820666</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>59.93827501442647</v>
+        <v>15.65611241077847</v>
       </c>
       <c r="C23">
-        <v>13.96319389979013</v>
+        <v>3.9615742293201</v>
       </c>
       <c r="D23">
-        <v>19.49502836351401</v>
+        <v>6.419946305125531</v>
       </c>
       <c r="E23">
-        <v>65.10457009485863</v>
+        <v>18.54252701902952</v>
       </c>
       <c r="F23">
-        <v>34.83248971952859</v>
+        <v>9.105157622292944</v>
       </c>
       <c r="G23">
-        <v>0.8019482501542721</v>
+        <v>2.959871059564684</v>
       </c>
       <c r="H23">
-        <v>18.02180875813952</v>
+        <v>2.036416869975091</v>
       </c>
       <c r="I23">
-        <v>12.16009977088045</v>
+        <v>3.520942166688997</v>
       </c>
       <c r="J23">
-        <v>18.28677549478493</v>
+        <v>0.5803980712816041</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>61.58530534793537</v>
+        <v>16.07935722637156</v>
       </c>
       <c r="C24">
-        <v>14.61375400970072</v>
+        <v>4.107669621934711</v>
       </c>
       <c r="D24">
-        <v>19.2321711853004</v>
+        <v>6.355059738335359</v>
       </c>
       <c r="E24">
-        <v>65.34177410030624</v>
+        <v>18.60632125471107</v>
       </c>
       <c r="F24">
-        <v>35.21727320327172</v>
+        <v>9.201526196288873</v>
       </c>
       <c r="G24">
-        <v>0.8018379772456773</v>
+        <v>2.959853833222639</v>
       </c>
       <c r="H24">
-        <v>18.18981620445143</v>
+        <v>2.010135366830154</v>
       </c>
       <c r="I24">
-        <v>12.4016236398327</v>
+        <v>3.586192899609446</v>
       </c>
       <c r="J24">
-        <v>18.47194534792943</v>
+        <v>0.5426936739556507</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1142,31 +1142,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>50.31541926115888</v>
+        <v>13.09332025580006</v>
       </c>
       <c r="C25">
-        <v>9.851889618845453</v>
+        <v>3.057856359654183</v>
       </c>
       <c r="D25">
-        <v>21.97773341698525</v>
+        <v>7.078035576335987</v>
       </c>
       <c r="E25">
-        <v>65.51972925621712</v>
+        <v>18.66584580469569</v>
       </c>
       <c r="F25">
-        <v>33.20888254968744</v>
+        <v>8.697019707373684</v>
       </c>
       <c r="G25">
-        <v>0.8023863592409626</v>
+        <v>2.959942196474851</v>
       </c>
       <c r="H25">
-        <v>17.35617218135903</v>
+        <v>2.144414751122814</v>
       </c>
       <c r="I25">
-        <v>12.57954909938501</v>
+        <v>3.634292947091492</v>
       </c>
       <c r="J25">
-        <v>17.72354820145952</v>
+        <v>0.7331531971415753</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/loading_percent.xlsx
+++ b/group2 project/results/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -400,773 +400,1223 @@
       <c r="J1" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.377150980694014</v>
+        <v>6.287202846176131</v>
       </c>
       <c r="C2">
-        <v>3.379914246651969</v>
+        <v>2.232244196265273</v>
       </c>
       <c r="D2">
-        <v>9.449768375945162</v>
+        <v>2.362012391039341</v>
       </c>
       <c r="E2">
-        <v>18.47399760305157</v>
+        <v>16.61590442094559</v>
       </c>
       <c r="F2">
-        <v>7.231757402547101</v>
+        <v>8.08015476616665</v>
       </c>
       <c r="G2">
-        <v>2.960181145736489</v>
+        <v>2.287716274297618</v>
       </c>
       <c r="H2">
-        <v>2.507522494578346</v>
+        <v>2.099565311330194</v>
       </c>
       <c r="I2">
-        <v>3.414291668632348</v>
+        <v>5.200173368112004</v>
       </c>
       <c r="J2">
-        <v>1.476604685401425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>2.555710310505476</v>
+      </c>
+      <c r="K2">
+        <v>7.107792934042795</v>
+      </c>
+      <c r="L2">
+        <v>7.90097790418391</v>
+      </c>
+      <c r="M2">
+        <v>3.678326812851752</v>
+      </c>
+      <c r="N2">
+        <v>12.67651156590653</v>
+      </c>
+      <c r="O2">
+        <v>1.958517010015631</v>
+      </c>
+      <c r="P2">
+        <v>2.857757984356734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.751815514474119</v>
+        <v>5.028358868461683</v>
       </c>
       <c r="C3">
-        <v>4.284371319845489</v>
+        <v>2.36373522208435</v>
       </c>
       <c r="D3">
-        <v>10.1342376280923</v>
+        <v>2.295806382587022</v>
       </c>
       <c r="E3">
-        <v>18.52376919492934</v>
+        <v>16.48540906692959</v>
       </c>
       <c r="F3">
-        <v>6.767798014299466</v>
+        <v>8.376936109371204</v>
       </c>
       <c r="G3">
-        <v>2.960251473765107</v>
+        <v>2.184285110041575</v>
       </c>
       <c r="H3">
-        <v>2.614411001142907</v>
+        <v>2.322578376613264</v>
       </c>
       <c r="I3">
-        <v>3.454475047340116</v>
+        <v>5.009367162743391</v>
       </c>
       <c r="J3">
-        <v>1.618687900100354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>1.895770545216509</v>
+      </c>
+      <c r="K3">
+        <v>7.090385399656044</v>
+      </c>
+      <c r="L3">
+        <v>8.17895918214619</v>
+      </c>
+      <c r="M3">
+        <v>3.09494891835472</v>
+      </c>
+      <c r="N3">
+        <v>12.60239136880797</v>
+      </c>
+      <c r="O3">
+        <v>2.25513174379339</v>
+      </c>
+      <c r="P3">
+        <v>2.820983435001512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.757074984518666</v>
+        <v>4.703615847807337</v>
       </c>
       <c r="C4">
-        <v>4.259200753344929</v>
+        <v>2.355718716787016</v>
       </c>
       <c r="D4">
-        <v>9.718818166843116</v>
+        <v>2.259912256826917</v>
       </c>
       <c r="E4">
-        <v>18.48597518109716</v>
+        <v>16.60993090060937</v>
       </c>
       <c r="F4">
-        <v>6.397200910192439</v>
+        <v>8.509755542466394</v>
       </c>
       <c r="G4">
-        <v>2.960311570509332</v>
+        <v>2.153093907878008</v>
       </c>
       <c r="H4">
-        <v>2.70568851398221</v>
+        <v>2.403125320574986</v>
       </c>
       <c r="I4">
-        <v>3.409662268348357</v>
+        <v>4.914660767949478</v>
       </c>
       <c r="J4">
-        <v>1.515560131842274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>1.171212629829785</v>
+      </c>
+      <c r="K4">
+        <v>7.066867968595418</v>
+      </c>
+      <c r="L4">
+        <v>8.208477122935385</v>
+      </c>
+      <c r="M4">
+        <v>3.148226545691367</v>
+      </c>
+      <c r="N4">
+        <v>12.45011668692408</v>
+      </c>
+      <c r="O4">
+        <v>2.279549035894452</v>
+      </c>
+      <c r="P4">
+        <v>2.841327157847691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.763619456296708</v>
+        <v>4.479457108011636</v>
       </c>
       <c r="C5">
-        <v>4.315873001313871</v>
+        <v>2.365359853862152</v>
       </c>
       <c r="D5">
-        <v>9.581627505098865</v>
+        <v>2.243956840924266</v>
       </c>
       <c r="E5">
-        <v>18.37166118868871</v>
+        <v>16.55804020731953</v>
       </c>
       <c r="F5">
-        <v>6.20059484244469</v>
+        <v>8.516166858406596</v>
       </c>
       <c r="G5">
-        <v>2.960342804261893</v>
+        <v>2.148939435748775</v>
       </c>
       <c r="H5">
-        <v>2.753176120253797</v>
+        <v>2.455645939574942</v>
       </c>
       <c r="I5">
-        <v>3.292756276489932</v>
+        <v>4.984397249030916</v>
       </c>
       <c r="J5">
-        <v>1.617321895261638</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>1.220965729838279</v>
+      </c>
+      <c r="K5">
+        <v>7.054206753974336</v>
+      </c>
+      <c r="L5">
+        <v>8.22305747680303</v>
+      </c>
+      <c r="M5">
+        <v>3.12750344163923</v>
+      </c>
+      <c r="N5">
+        <v>12.30439607348703</v>
+      </c>
+      <c r="O5">
+        <v>2.311841602316433</v>
+      </c>
+      <c r="P5">
+        <v>2.854088552416903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.790119313091753</v>
+        <v>4.32066161782249</v>
       </c>
       <c r="C6">
-        <v>4.419894277330862</v>
+        <v>2.386181862283991</v>
       </c>
       <c r="D6">
-        <v>9.615804525064506</v>
+        <v>2.232129991451259</v>
       </c>
       <c r="E6">
-        <v>18.28610256189373</v>
+        <v>16.47096696410718</v>
       </c>
       <c r="F6">
-        <v>6.114846664261417</v>
+        <v>8.497873821563147</v>
       </c>
       <c r="G6">
-        <v>2.960355899475239</v>
+        <v>2.148526346805741</v>
       </c>
       <c r="H6">
-        <v>2.77307833132996</v>
+        <v>2.490269859734567</v>
       </c>
       <c r="I6">
-        <v>3.206609321741567</v>
+        <v>5.062817394044135</v>
       </c>
       <c r="J6">
-        <v>1.643792517330155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>1.222552519396026</v>
+      </c>
+      <c r="K6">
+        <v>7.049176566998923</v>
+      </c>
+      <c r="L6">
+        <v>8.240900775597025</v>
+      </c>
+      <c r="M6">
+        <v>3.075562450605593</v>
+      </c>
+      <c r="N6">
+        <v>12.2187337136159</v>
+      </c>
+      <c r="O6">
+        <v>2.348717772552887</v>
+      </c>
+      <c r="P6">
+        <v>2.848631053735936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.457248895295045</v>
+        <v>3.736539852420357</v>
       </c>
       <c r="C7">
-        <v>5.193241574679397</v>
+        <v>2.558751123643612</v>
       </c>
       <c r="D7">
-        <v>10.50432396482842</v>
+        <v>2.290805799663633</v>
       </c>
       <c r="E7">
-        <v>18.2858021046148</v>
+        <v>16.19028919594259</v>
       </c>
       <c r="F7">
-        <v>6.114857602873973</v>
+        <v>8.543443917429569</v>
       </c>
       <c r="G7">
-        <v>2.960350680735095</v>
+        <v>2.151774701395615</v>
       </c>
       <c r="H7">
-        <v>2.765145861482968</v>
+        <v>2.62536532428994</v>
       </c>
       <c r="I7">
-        <v>3.206609321741611</v>
+        <v>5.098116618641616</v>
       </c>
       <c r="J7">
-        <v>1.698448044258332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>1.026322657822471</v>
+      </c>
+      <c r="K7">
+        <v>7.057181845559962</v>
+      </c>
+      <c r="L7">
+        <v>8.411961837164064</v>
+      </c>
+      <c r="M7">
+        <v>2.851215135404044</v>
+      </c>
+      <c r="N7">
+        <v>12.25219086939694</v>
+      </c>
+      <c r="O7">
+        <v>2.583892956157399</v>
+      </c>
+      <c r="P7">
+        <v>2.919246420235871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.733501088231413</v>
+        <v>3.609162708961326</v>
       </c>
       <c r="C8">
-        <v>5.397867408501163</v>
+        <v>2.606422905449405</v>
       </c>
       <c r="D8">
-        <v>10.75497804858412</v>
+        <v>2.341214793761214</v>
       </c>
       <c r="E8">
-        <v>18.26904221803913</v>
+        <v>16.09331129238991</v>
       </c>
       <c r="F8">
-        <v>6.136077023567042</v>
+        <v>8.533666110680832</v>
       </c>
       <c r="G8">
-        <v>2.960345865583092</v>
+        <v>2.151122222638036</v>
       </c>
       <c r="H8">
-        <v>2.757787240833748</v>
+        <v>2.662109820551805</v>
       </c>
       <c r="I8">
-        <v>3.190568529478301</v>
+        <v>5.136036813248526</v>
       </c>
       <c r="J8">
-        <v>1.812755433389108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1.154827493910647</v>
+      </c>
+      <c r="K8">
+        <v>7.060378649060857</v>
+      </c>
+      <c r="L8">
+        <v>8.450676030551623</v>
+      </c>
+      <c r="M8">
+        <v>2.839111292213846</v>
+      </c>
+      <c r="N8">
+        <v>12.25584530084931</v>
+      </c>
+      <c r="O8">
+        <v>2.646309973618142</v>
+      </c>
+      <c r="P8">
+        <v>2.990200118316361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.98048710186955</v>
+        <v>4.193576742638388</v>
       </c>
       <c r="C9">
-        <v>4.972173630366306</v>
+        <v>2.509054219657043</v>
       </c>
       <c r="D9">
-        <v>10.59690162634624</v>
+        <v>2.339042843236309</v>
       </c>
       <c r="E9">
-        <v>18.23808155454232</v>
+        <v>16.08799513918208</v>
       </c>
       <c r="F9">
-        <v>6.442051925991617</v>
+        <v>8.352356989824663</v>
       </c>
       <c r="G9">
-        <v>2.960299965399589</v>
+        <v>2.153944838860858</v>
       </c>
       <c r="H9">
-        <v>2.688024012162442</v>
+        <v>2.513726171947227</v>
       </c>
       <c r="I9">
-        <v>3.165909919073763</v>
+        <v>5.272404409169006</v>
       </c>
       <c r="J9">
-        <v>1.886585556293671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>1.749128404462708</v>
+      </c>
+      <c r="K9">
+        <v>7.074609583335254</v>
+      </c>
+      <c r="L9">
+        <v>8.316809751827519</v>
+      </c>
+      <c r="M9">
+        <v>2.861857831017671</v>
+      </c>
+      <c r="N9">
+        <v>12.31737509600657</v>
+      </c>
+      <c r="O9">
+        <v>2.487235586917419</v>
+      </c>
+      <c r="P9">
+        <v>2.934535408263455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.494599533892234</v>
+        <v>6.320349725426297</v>
       </c>
       <c r="C10">
-        <v>3.320709194791647</v>
+        <v>2.230437653990826</v>
       </c>
       <c r="D10">
-        <v>9.329830122772751</v>
+        <v>2.359230070363346</v>
       </c>
       <c r="E10">
-        <v>18.30524271684992</v>
+        <v>16.49238687185974</v>
       </c>
       <c r="F10">
-        <v>7.197565067547022</v>
+        <v>7.968581344976777</v>
       </c>
       <c r="G10">
-        <v>2.960187414781246</v>
+        <v>2.2916616811747</v>
       </c>
       <c r="H10">
-        <v>2.516972042956099</v>
+        <v>2.10378813244156</v>
       </c>
       <c r="I10">
-        <v>3.246804273437029</v>
+        <v>5.393757025231878</v>
       </c>
       <c r="J10">
-        <v>1.489390065793366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>2.562640603712968</v>
+      </c>
+      <c r="K10">
+        <v>7.103114740337723</v>
+      </c>
+      <c r="L10">
+        <v>7.859486056513693</v>
+      </c>
+      <c r="M10">
+        <v>3.710284052253801</v>
+      </c>
+      <c r="N10">
+        <v>12.53927372188671</v>
+      </c>
+      <c r="O10">
+        <v>1.944493506916511</v>
+      </c>
+      <c r="P10">
+        <v>2.863737307788825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.329644214908447</v>
+        <v>8.644884648797142</v>
       </c>
       <c r="C11">
-        <v>2.428127632827539</v>
+        <v>2.293609968541441</v>
       </c>
       <c r="D11">
-        <v>7.808595192214611</v>
+        <v>2.815134724242057</v>
       </c>
       <c r="E11">
-        <v>18.34788288210802</v>
+        <v>16.96018375881318</v>
       </c>
       <c r="F11">
-        <v>7.917319569547963</v>
+        <v>7.576736605503761</v>
       </c>
       <c r="G11">
-        <v>2.960074358164766</v>
+        <v>2.572063922788843</v>
       </c>
       <c r="H11">
-        <v>2.345059120591833</v>
+        <v>1.990702409641053</v>
       </c>
       <c r="I11">
-        <v>3.303339636634402</v>
+        <v>5.520594465797411</v>
       </c>
       <c r="J11">
-        <v>1.020937903443516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>3.111263207813813</v>
+      </c>
+      <c r="K11">
+        <v>7.126827893167224</v>
+      </c>
+      <c r="L11">
+        <v>7.391175828132384</v>
+      </c>
+      <c r="M11">
+        <v>5.426519441909475</v>
+      </c>
+      <c r="N11">
+        <v>12.72268249603936</v>
+      </c>
+      <c r="O11">
+        <v>1.663828288094281</v>
+      </c>
+      <c r="P11">
+        <v>3.54439886332995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.14834013443572</v>
+        <v>9.500688823502919</v>
       </c>
       <c r="C12">
-        <v>2.557384939984241</v>
+        <v>2.371551302384808</v>
       </c>
       <c r="D12">
-        <v>7.320617970422393</v>
+        <v>3.04889889869674</v>
       </c>
       <c r="E12">
-        <v>18.3155584387526</v>
+        <v>17.05358553359099</v>
       </c>
       <c r="F12">
-        <v>8.258310533330446</v>
+        <v>7.35731776125554</v>
       </c>
       <c r="G12">
-        <v>2.960017830615906</v>
+        <v>2.727804924346196</v>
       </c>
       <c r="H12">
-        <v>2.273604417646808</v>
+        <v>2.072140107392818</v>
       </c>
       <c r="I12">
-        <v>3.278512933571507</v>
+        <v>5.646564874515725</v>
       </c>
       <c r="J12">
-        <v>0.8988582028775227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>3.593083010113456</v>
+      </c>
+      <c r="K12">
+        <v>7.137756887227501</v>
+      </c>
+      <c r="L12">
+        <v>7.221396017393825</v>
+      </c>
+      <c r="M12">
+        <v>6.074369803408784</v>
+      </c>
+      <c r="N12">
+        <v>12.7725873254954</v>
+      </c>
+      <c r="O12">
+        <v>1.659095604950798</v>
+      </c>
+      <c r="P12">
+        <v>3.855153442023601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.65151335541934</v>
+        <v>9.631748058223508</v>
       </c>
       <c r="C13">
-        <v>2.599030371490857</v>
+        <v>2.403527347508424</v>
       </c>
       <c r="D13">
-        <v>6.93684330454513</v>
+        <v>3.332976596761947</v>
       </c>
       <c r="E13">
-        <v>18.28188141503194</v>
+        <v>17.0942442520447</v>
       </c>
       <c r="F13">
-        <v>8.522244728219166</v>
+        <v>7.124171955756206</v>
       </c>
       <c r="G13">
-        <v>2.959973387653754</v>
+        <v>2.739052587809284</v>
       </c>
       <c r="H13">
-        <v>2.372036402585024</v>
+        <v>2.542026786482623</v>
       </c>
       <c r="I13">
-        <v>3.25084277283168</v>
+        <v>5.708077814075468</v>
       </c>
       <c r="J13">
-        <v>0.8027070478866629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>3.892203290709038</v>
+      </c>
+      <c r="K13">
+        <v>7.135084479205829</v>
+      </c>
+      <c r="L13">
+        <v>7.146454991122001</v>
+      </c>
+      <c r="M13">
+        <v>6.309225351965399</v>
+      </c>
+      <c r="N13">
+        <v>12.76024386928332</v>
+      </c>
+      <c r="O13">
+        <v>1.607541983855957</v>
+      </c>
+      <c r="P13">
+        <v>4.045068192154393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.05542827332309</v>
+        <v>9.245197824267818</v>
       </c>
       <c r="C14">
-        <v>2.497707232187481</v>
+        <v>2.378430812896376</v>
       </c>
       <c r="D14">
-        <v>6.835572182382715</v>
+        <v>3.463042101753652</v>
       </c>
       <c r="E14">
-        <v>18.24054239096546</v>
+        <v>17.05703906492818</v>
       </c>
       <c r="F14">
-        <v>8.568401783898235</v>
+        <v>7.010098561760546</v>
       </c>
       <c r="G14">
-        <v>2.959965675474017</v>
+        <v>2.656663356838241</v>
       </c>
       <c r="H14">
-        <v>2.595277714579796</v>
+        <v>2.987288269048143</v>
       </c>
       <c r="I14">
-        <v>3.21104898746755</v>
+        <v>5.724103634664116</v>
       </c>
       <c r="J14">
-        <v>0.7861683681731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>3.891743074248649</v>
+      </c>
+      <c r="K14">
+        <v>7.125044366644478</v>
+      </c>
+      <c r="L14">
+        <v>7.16709043171349</v>
+      </c>
+      <c r="M14">
+        <v>6.144462800824973</v>
+      </c>
+      <c r="N14">
+        <v>12.6949406314028</v>
+      </c>
+      <c r="O14">
+        <v>1.625737686652795</v>
+      </c>
+      <c r="P14">
+        <v>4.029328055110378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.42371651852407</v>
+        <v>8.893425049785595</v>
       </c>
       <c r="C15">
-        <v>2.442104697467491</v>
+        <v>2.351160294173964</v>
       </c>
       <c r="D15">
-        <v>6.866949929700393</v>
+        <v>3.457855465399013</v>
       </c>
       <c r="E15">
-        <v>18.18205877504704</v>
+        <v>16.98484270461561</v>
       </c>
       <c r="F15">
-        <v>8.501862865039907</v>
+        <v>6.978431639739579</v>
       </c>
       <c r="G15">
-        <v>2.959977087982375</v>
+        <v>2.592931192440079</v>
       </c>
       <c r="H15">
-        <v>2.722068456971865</v>
+        <v>3.139675587224756</v>
       </c>
       <c r="I15">
-        <v>3.151996471117923</v>
+        <v>5.757588184718069</v>
       </c>
       <c r="J15">
-        <v>0.8113920867200061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>3.783891417342828</v>
+      </c>
+      <c r="K15">
+        <v>7.11690474666023</v>
+      </c>
+      <c r="L15">
+        <v>7.202955787916293</v>
+      </c>
+      <c r="M15">
+        <v>5.937131989011816</v>
+      </c>
+      <c r="N15">
+        <v>12.61623733685681</v>
+      </c>
+      <c r="O15">
+        <v>1.682491683828166</v>
+      </c>
+      <c r="P15">
+        <v>3.950778916963292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.1747940245792</v>
+        <v>8.771352055895246</v>
       </c>
       <c r="C16">
-        <v>2.428030667570541</v>
+        <v>2.338685323037465</v>
       </c>
       <c r="D16">
-        <v>6.922923344991936</v>
+        <v>3.462361939167664</v>
       </c>
       <c r="E16">
-        <v>18.24060236535438</v>
+        <v>17.01994585766506</v>
       </c>
       <c r="F16">
-        <v>8.502499199550655</v>
+        <v>7.013629482456948</v>
       </c>
       <c r="G16">
-        <v>2.959976763736356</v>
+        <v>2.570383231803258</v>
       </c>
       <c r="H16">
-        <v>2.765078240612815</v>
+        <v>3.184456362915025</v>
       </c>
       <c r="I16">
-        <v>3.20971201073794</v>
+        <v>5.680367405073576</v>
       </c>
       <c r="J16">
-        <v>0.8104340253762247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>3.754083781009194</v>
+      </c>
+      <c r="K16">
+        <v>7.11649134431873</v>
+      </c>
+      <c r="L16">
+        <v>7.229660889877615</v>
+      </c>
+      <c r="M16">
+        <v>5.858239022889636</v>
+      </c>
+      <c r="N16">
+        <v>12.65478048009997</v>
+      </c>
+      <c r="O16">
+        <v>1.710430067694821</v>
+      </c>
+      <c r="P16">
+        <v>3.92242348721408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.946360435311478</v>
+        <v>8.665889612605824</v>
       </c>
       <c r="C17">
-        <v>2.420897897676972</v>
+        <v>2.326979453058087</v>
       </c>
       <c r="D17">
-        <v>6.991290687205554</v>
+        <v>3.463264364525529</v>
       </c>
       <c r="E17">
-        <v>18.31654775833172</v>
+        <v>17.06872357124196</v>
       </c>
       <c r="F17">
-        <v>8.506557338280803</v>
+        <v>7.062359655514718</v>
       </c>
       <c r="G17">
-        <v>2.959975800024422</v>
+        <v>2.551233171177739</v>
       </c>
       <c r="H17">
-        <v>2.796948647756782</v>
+        <v>3.209013227063958</v>
       </c>
       <c r="I17">
-        <v>3.284725098375376</v>
+        <v>5.584906553828965</v>
       </c>
       <c r="J17">
-        <v>0.8079992017358351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>3.726689096639934</v>
+      </c>
+      <c r="K17">
+        <v>7.116973797055465</v>
+      </c>
+      <c r="L17">
+        <v>7.258299018041611</v>
+      </c>
+      <c r="M17">
+        <v>5.785540474454117</v>
+      </c>
+      <c r="N17">
+        <v>12.70920876349997</v>
+      </c>
+      <c r="O17">
+        <v>1.73724855031664</v>
+      </c>
+      <c r="P17">
+        <v>3.895069670843548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.840329375667626</v>
+        <v>8.139394481787624</v>
       </c>
       <c r="C18">
-        <v>2.45264855696137</v>
+        <v>2.284218964486139</v>
       </c>
       <c r="D18">
-        <v>7.275736778961825</v>
+        <v>3.292870099338484</v>
       </c>
       <c r="E18">
-        <v>18.31381049561193</v>
+        <v>16.99418550265449</v>
       </c>
       <c r="F18">
-        <v>8.2906262830847</v>
+        <v>7.18181713253386</v>
       </c>
       <c r="G18">
-        <v>2.960011966157307</v>
+        <v>2.471482186579647</v>
       </c>
       <c r="H18">
-        <v>2.815457430931946</v>
+        <v>3.038679884838609</v>
       </c>
       <c r="I18">
-        <v>3.277477626738684</v>
+        <v>5.5329319415825</v>
       </c>
       <c r="J18">
-        <v>0.8869254641439041</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>3.428974307378247</v>
+      </c>
+      <c r="K18">
+        <v>7.109628545816375</v>
+      </c>
+      <c r="L18">
+        <v>7.358537305892517</v>
+      </c>
+      <c r="M18">
+        <v>5.392254358566642</v>
+      </c>
+      <c r="N18">
+        <v>12.65957609669946</v>
+      </c>
+      <c r="O18">
+        <v>1.825304331741954</v>
+      </c>
+      <c r="P18">
+        <v>3.69720323489514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.350794688711122</v>
+        <v>7.940357574738302</v>
       </c>
       <c r="C19">
-        <v>2.491750244930937</v>
+        <v>2.267179855995842</v>
       </c>
       <c r="D19">
-        <v>7.490444667626228</v>
+        <v>3.160796754968034</v>
       </c>
       <c r="E19">
-        <v>18.35066629042786</v>
+        <v>16.98089472593495</v>
       </c>
       <c r="F19">
-        <v>8.156694602634566</v>
+        <v>7.302386728302396</v>
       </c>
       <c r="G19">
-        <v>2.960034132227903</v>
+        <v>2.444135352656048</v>
       </c>
       <c r="H19">
-        <v>2.74589474052704</v>
+        <v>2.80999261292316</v>
       </c>
       <c r="I19">
-        <v>3.311069770235996</v>
+        <v>5.467652161647703</v>
       </c>
       <c r="J19">
-        <v>0.9349190441063394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>3.255573160578047</v>
+      </c>
+      <c r="K19">
+        <v>7.108992902403016</v>
+      </c>
+      <c r="L19">
+        <v>7.417593423558206</v>
+      </c>
+      <c r="M19">
+        <v>5.206757546627197</v>
+      </c>
+      <c r="N19">
+        <v>12.67126075611509</v>
+      </c>
+      <c r="O19">
+        <v>1.833750063737983</v>
+      </c>
+      <c r="P19">
+        <v>3.589644354187296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.540798834865871</v>
+        <v>8.633619977602988</v>
       </c>
       <c r="C20">
-        <v>2.424662992557593</v>
+        <v>2.304599626085442</v>
       </c>
       <c r="D20">
-        <v>7.482688034052917</v>
+        <v>3.059779621992559</v>
       </c>
       <c r="E20">
-        <v>18.34398180812121</v>
+        <v>17.0097583874414</v>
       </c>
       <c r="F20">
-        <v>8.157681858686605</v>
+        <v>7.371175374161288</v>
       </c>
       <c r="G20">
-        <v>2.96003443778853</v>
+        <v>2.558930402954984</v>
       </c>
       <c r="H20">
-        <v>2.45000274239669</v>
+        <v>2.348524530408477</v>
       </c>
       <c r="I20">
-        <v>3.304476368388815</v>
+        <v>5.535066251481497</v>
       </c>
       <c r="J20">
-        <v>0.9348594902234381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>3.356793134293178</v>
+      </c>
+      <c r="K20">
+        <v>7.122768026432586</v>
+      </c>
+      <c r="L20">
+        <v>7.340801585225333</v>
+      </c>
+      <c r="M20">
+        <v>5.559590483790202</v>
+      </c>
+      <c r="N20">
+        <v>12.72293745533094</v>
+      </c>
+      <c r="O20">
+        <v>1.661593581849591</v>
+      </c>
+      <c r="P20">
+        <v>3.67757445374295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.49912417773591</v>
+        <v>10.1660687968381</v>
       </c>
       <c r="C21">
-        <v>2.899309808985555</v>
+        <v>2.441551789412869</v>
       </c>
       <c r="D21">
-        <v>7.047593734445005</v>
+        <v>3.206869859299537</v>
       </c>
       <c r="E21">
-        <v>18.37502472245938</v>
+        <v>17.18137127525242</v>
       </c>
       <c r="F21">
-        <v>8.506950527730137</v>
+        <v>7.272476457455208</v>
       </c>
       <c r="G21">
-        <v>2.959975549455284</v>
+        <v>2.860010505252493</v>
       </c>
       <c r="H21">
-        <v>2.203215430056046</v>
+        <v>2.102471269733103</v>
       </c>
       <c r="I21">
-        <v>3.342478804598323</v>
+        <v>5.647009406736869</v>
       </c>
       <c r="J21">
-        <v>0.8071408605508809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>3.935605468171041</v>
+      </c>
+      <c r="K21">
+        <v>7.149485721773114</v>
+      </c>
+      <c r="L21">
+        <v>7.116975143024734</v>
+      </c>
+      <c r="M21">
+        <v>6.557555761399968</v>
+      </c>
+      <c r="N21">
+        <v>12.88130577090036</v>
+      </c>
+      <c r="O21">
+        <v>1.698482954194961</v>
+      </c>
+      <c r="P21">
+        <v>4.090456651683652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.35414606553618</v>
+        <v>11.07632742105013</v>
       </c>
       <c r="C22">
-        <v>3.508940837538074</v>
+        <v>2.555645671142424</v>
       </c>
       <c r="D22">
-        <v>6.676126401232599</v>
+        <v>3.433873440799188</v>
       </c>
       <c r="E22">
-        <v>18.45452127466651</v>
+        <v>17.35442790729752</v>
       </c>
       <c r="F22">
-        <v>8.845858291679059</v>
+        <v>7.156431059867831</v>
       </c>
       <c r="G22">
-        <v>2.959916829024916</v>
+        <v>3.053879407557646</v>
       </c>
       <c r="H22">
-        <v>2.106081306190618</v>
+        <v>2.165443629457858</v>
       </c>
       <c r="I22">
-        <v>3.428282708650405</v>
+        <v>5.649340403588189</v>
       </c>
       <c r="J22">
-        <v>0.6798576488820666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>4.406247820879996</v>
+      </c>
+      <c r="K22">
+        <v>7.165507589696428</v>
+      </c>
+      <c r="L22">
+        <v>6.978359231125706</v>
+      </c>
+      <c r="M22">
+        <v>7.230050088714007</v>
+      </c>
+      <c r="N22">
+        <v>13.0287053462307</v>
+      </c>
+      <c r="O22">
+        <v>1.806236003413746</v>
+      </c>
+      <c r="P22">
+        <v>4.432258701978587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.65611241077847</v>
+        <v>11.71399126782029</v>
       </c>
       <c r="C23">
-        <v>3.9615742293201</v>
+        <v>2.645831677533318</v>
       </c>
       <c r="D23">
-        <v>6.419946305125531</v>
+        <v>3.617269659913366</v>
       </c>
       <c r="E23">
-        <v>18.54252701902952</v>
+        <v>17.50286297147093</v>
       </c>
       <c r="F23">
-        <v>9.105157622292944</v>
+        <v>7.084534978153105</v>
       </c>
       <c r="G23">
-        <v>2.959871059564684</v>
+        <v>3.194635260999332</v>
       </c>
       <c r="H23">
-        <v>2.036416869975091</v>
+        <v>2.247966771981304</v>
       </c>
       <c r="I23">
-        <v>3.520942166688997</v>
+        <v>5.614909209040259</v>
       </c>
       <c r="J23">
-        <v>0.5803980712816041</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>4.753055559232538</v>
+      </c>
+      <c r="K23">
+        <v>7.177564840810271</v>
+      </c>
+      <c r="L23">
+        <v>6.887470720869968</v>
+      </c>
+      <c r="M23">
+        <v>7.711742376313683</v>
+      </c>
+      <c r="N23">
+        <v>13.15952615049605</v>
+      </c>
+      <c r="O23">
+        <v>1.899872845413604</v>
+      </c>
+      <c r="P23">
+        <v>4.691160189972559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.07935722637156</v>
+        <v>11.92804575920757</v>
       </c>
       <c r="C24">
-        <v>4.107669621934711</v>
+        <v>2.675338728008956</v>
       </c>
       <c r="D24">
-        <v>6.355059738335359</v>
+        <v>3.681690639079678</v>
       </c>
       <c r="E24">
-        <v>18.60632125471107</v>
+        <v>17.57859000434257</v>
       </c>
       <c r="F24">
-        <v>9.201526196288873</v>
+        <v>7.081442269633792</v>
       </c>
       <c r="G24">
-        <v>2.959853833222639</v>
+        <v>3.241676137400219</v>
       </c>
       <c r="H24">
-        <v>2.010135366830154</v>
+        <v>2.272843422268328</v>
       </c>
       <c r="I24">
-        <v>3.586192899609446</v>
+        <v>5.564705464404335</v>
       </c>
       <c r="J24">
-        <v>0.5426936739556507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>4.871678687287289</v>
+      </c>
+      <c r="K24">
+        <v>7.182703790755881</v>
+      </c>
+      <c r="L24">
+        <v>6.863332231520693</v>
+      </c>
+      <c r="M24">
+        <v>7.870394305536629</v>
+      </c>
+      <c r="N24">
+        <v>13.23227364710141</v>
+      </c>
+      <c r="O24">
+        <v>1.932030991676536</v>
+      </c>
+      <c r="P24">
+        <v>4.778597187346949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.09332025580006</v>
+        <v>10.51592243003745</v>
       </c>
       <c r="C25">
-        <v>3.057856359654183</v>
+        <v>2.465975955452897</v>
       </c>
       <c r="D25">
-        <v>7.078035576335987</v>
+        <v>3.291651952701531</v>
       </c>
       <c r="E25">
-        <v>18.66584580469569</v>
+        <v>17.44244219863795</v>
       </c>
       <c r="F25">
-        <v>8.697019707373684</v>
+        <v>7.397234122686269</v>
       </c>
       <c r="G25">
-        <v>2.959942196474851</v>
+        <v>2.92546682625598</v>
       </c>
       <c r="H25">
-        <v>2.144414751122814</v>
+        <v>2.059912502921152</v>
       </c>
       <c r="I25">
-        <v>3.634292947091492</v>
+        <v>5.354092880061678</v>
       </c>
       <c r="J25">
-        <v>0.7331531971415753</v>
+        <v>4.12022287917415</v>
+      </c>
+      <c r="K25">
+        <v>7.163989187925591</v>
+      </c>
+      <c r="L25">
+        <v>7.112170577318894</v>
+      </c>
+      <c r="M25">
+        <v>6.778251493775972</v>
+      </c>
+      <c r="N25">
+        <v>13.15575143602423</v>
+      </c>
+      <c r="O25">
+        <v>1.718760988082753</v>
+      </c>
+      <c r="P25">
+        <v>4.202126874501275</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/loading_percent.xlsx
+++ b/group2 project/results/res_line/loading_percent.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.287202846176131</v>
+        <v>1.943779436309221</v>
       </c>
       <c r="C2">
-        <v>2.232244196265273</v>
+        <v>4.621244106284457</v>
       </c>
       <c r="D2">
-        <v>2.362012391039341</v>
+        <v>2.995716068377539</v>
       </c>
       <c r="E2">
-        <v>16.61590442094559</v>
+        <v>22.95162320338292</v>
       </c>
       <c r="F2">
-        <v>8.08015476616665</v>
+        <v>16.00323623896281</v>
       </c>
       <c r="G2">
-        <v>2.287716274297618</v>
+        <v>3.26323893437486</v>
       </c>
       <c r="H2">
-        <v>2.099565311330194</v>
+        <v>4.70993496967668</v>
       </c>
       <c r="I2">
-        <v>5.200173368112004</v>
+        <v>6.711371044955118</v>
       </c>
       <c r="J2">
-        <v>2.555710310505476</v>
+        <v>2.808969799368286</v>
       </c>
       <c r="K2">
-        <v>7.107792934042795</v>
+        <v>7.297014672099403</v>
       </c>
       <c r="L2">
-        <v>7.90097790418391</v>
+        <v>11.84057418844769</v>
       </c>
       <c r="M2">
-        <v>3.678326812851752</v>
+        <v>5.50004590713716</v>
       </c>
       <c r="N2">
-        <v>12.67651156590653</v>
+        <v>20.13877357947742</v>
       </c>
       <c r="O2">
-        <v>1.958517010015631</v>
+        <v>5.151741783043741</v>
       </c>
       <c r="P2">
-        <v>2.857757984356734</v>
+        <v>4.529407319480325</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.028358868461683</v>
+        <v>3.044506657826559</v>
       </c>
       <c r="C3">
-        <v>2.36373522208435</v>
+        <v>5.011042301241948</v>
       </c>
       <c r="D3">
-        <v>2.295806382587022</v>
+        <v>3.297938542280081</v>
       </c>
       <c r="E3">
-        <v>16.48540906692959</v>
+        <v>22.89921172513269</v>
       </c>
       <c r="F3">
-        <v>8.376936109371204</v>
+        <v>16.41986580403153</v>
       </c>
       <c r="G3">
-        <v>2.184285110041575</v>
+        <v>3.585400482979777</v>
       </c>
       <c r="H3">
-        <v>2.322578376613264</v>
+        <v>5.212148011359009</v>
       </c>
       <c r="I3">
-        <v>5.009367162743391</v>
+        <v>7.04981857162679</v>
       </c>
       <c r="J3">
-        <v>1.895770545216509</v>
+        <v>3.254032180657171</v>
       </c>
       <c r="K3">
-        <v>7.090385399656044</v>
+        <v>7.279861654426711</v>
       </c>
       <c r="L3">
-        <v>8.17895918214619</v>
+        <v>12.23869132983359</v>
       </c>
       <c r="M3">
-        <v>3.09494891835472</v>
+        <v>6.561512426858829</v>
       </c>
       <c r="N3">
-        <v>12.60239136880797</v>
+        <v>20.14894475867641</v>
       </c>
       <c r="O3">
-        <v>2.25513174379339</v>
+        <v>5.660882607910517</v>
       </c>
       <c r="P3">
-        <v>2.820983435001512</v>
+        <v>5.142877906898704</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.703615847807337</v>
+        <v>3.292516022304186</v>
       </c>
       <c r="C4">
-        <v>2.355718716787016</v>
+        <v>4.959341912495509</v>
       </c>
       <c r="D4">
-        <v>2.259912256826917</v>
+        <v>3.06733688410094</v>
       </c>
       <c r="E4">
-        <v>16.60993090060937</v>
+        <v>22.9327053402317</v>
       </c>
       <c r="F4">
-        <v>8.509755542466394</v>
+        <v>16.44482568958979</v>
       </c>
       <c r="G4">
-        <v>2.153093907878008</v>
+        <v>3.762607988318647</v>
       </c>
       <c r="H4">
-        <v>2.403125320574986</v>
+        <v>5.179986731152889</v>
       </c>
       <c r="I4">
-        <v>4.914660767949478</v>
+        <v>6.980935674713537</v>
       </c>
       <c r="J4">
-        <v>1.171212629829785</v>
+        <v>4.419373867247618</v>
       </c>
       <c r="K4">
-        <v>7.066867968595418</v>
+        <v>7.251707563762136</v>
       </c>
       <c r="L4">
-        <v>8.208477122935385</v>
+        <v>12.21334706466701</v>
       </c>
       <c r="M4">
-        <v>3.148226545691367</v>
+        <v>6.386882012028219</v>
       </c>
       <c r="N4">
-        <v>12.45011668692408</v>
+        <v>19.87757141773051</v>
       </c>
       <c r="O4">
-        <v>2.279549035894452</v>
+        <v>5.615338943748699</v>
       </c>
       <c r="P4">
-        <v>2.841327157847691</v>
+        <v>4.788771555051463</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.479457108011636</v>
+        <v>3.292551802625213</v>
       </c>
       <c r="C5">
-        <v>2.365359853862152</v>
+        <v>4.867228386327583</v>
       </c>
       <c r="D5">
-        <v>2.243956840924266</v>
+        <v>2.974285693146575</v>
       </c>
       <c r="E5">
-        <v>16.55804020731953</v>
+        <v>22.64554401646897</v>
       </c>
       <c r="F5">
-        <v>8.516166858406596</v>
+        <v>16.1528198122506</v>
       </c>
       <c r="G5">
-        <v>2.148939435748775</v>
+        <v>3.766743992056735</v>
       </c>
       <c r="H5">
-        <v>2.455645939574942</v>
+        <v>5.08880921427547</v>
       </c>
       <c r="I5">
-        <v>4.984397249030916</v>
+        <v>6.482815888595398</v>
       </c>
       <c r="J5">
-        <v>1.220965729838279</v>
+        <v>4.743426140465418</v>
       </c>
       <c r="K5">
-        <v>7.054206753974336</v>
+        <v>7.231233582371307</v>
       </c>
       <c r="L5">
-        <v>8.22305747680303</v>
+        <v>12.07151912092992</v>
       </c>
       <c r="M5">
-        <v>3.12750344163923</v>
+        <v>6.210273518690854</v>
       </c>
       <c r="N5">
-        <v>12.30439607348703</v>
+        <v>19.44451056011519</v>
       </c>
       <c r="O5">
-        <v>2.311841602316433</v>
+        <v>5.511974629591097</v>
       </c>
       <c r="P5">
-        <v>2.854088552416903</v>
+        <v>4.620368763242287</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.32066161782249</v>
+        <v>3.28149606354296</v>
       </c>
       <c r="C6">
-        <v>2.386181862283991</v>
+        <v>4.82150129860095</v>
       </c>
       <c r="D6">
-        <v>2.232129991451259</v>
+        <v>2.972372566666225</v>
       </c>
       <c r="E6">
-        <v>16.47096696410718</v>
+        <v>22.38499132965381</v>
       </c>
       <c r="F6">
-        <v>8.497873821563147</v>
+        <v>15.91325625579562</v>
       </c>
       <c r="G6">
-        <v>2.148526346805741</v>
+        <v>3.734977821908116</v>
       </c>
       <c r="H6">
-        <v>2.490269859734567</v>
+        <v>5.043658473879184</v>
       </c>
       <c r="I6">
-        <v>5.062817394044135</v>
+        <v>6.088467220772439</v>
       </c>
       <c r="J6">
-        <v>1.222552519396026</v>
+        <v>4.699069022573527</v>
       </c>
       <c r="K6">
-        <v>7.049176566998923</v>
+        <v>7.220807213832122</v>
       </c>
       <c r="L6">
-        <v>8.240900775597025</v>
+        <v>11.97570544529274</v>
       </c>
       <c r="M6">
-        <v>3.075562450605593</v>
+        <v>6.159601189731215</v>
       </c>
       <c r="N6">
-        <v>12.2187337136159</v>
+        <v>19.14888612156906</v>
       </c>
       <c r="O6">
-        <v>2.348717772552887</v>
+        <v>5.46025442786067</v>
       </c>
       <c r="P6">
-        <v>2.848631053735936</v>
+        <v>4.603173258558209</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.736539852420357</v>
+        <v>3.847113099565488</v>
       </c>
       <c r="C7">
-        <v>2.558751123643612</v>
+        <v>5.090462488670229</v>
       </c>
       <c r="D7">
-        <v>2.290805799663633</v>
+        <v>3.416059026378509</v>
       </c>
       <c r="E7">
-        <v>16.19028919594259</v>
+        <v>22.10351639056095</v>
       </c>
       <c r="F7">
-        <v>8.543443917429569</v>
+        <v>15.96220104680433</v>
       </c>
       <c r="G7">
-        <v>2.151774701395615</v>
+        <v>3.754821851253407</v>
       </c>
       <c r="H7">
-        <v>2.62536532428994</v>
+        <v>5.359365572342014</v>
       </c>
       <c r="I7">
-        <v>5.098116618641616</v>
+        <v>6.053044418740808</v>
       </c>
       <c r="J7">
-        <v>1.026322657822471</v>
+        <v>3.822944471476261</v>
       </c>
       <c r="K7">
-        <v>7.057181845559962</v>
+        <v>7.229082768181862</v>
       </c>
       <c r="L7">
-        <v>8.411961837164064</v>
+        <v>12.18085783678845</v>
       </c>
       <c r="M7">
-        <v>2.851215135404044</v>
+        <v>6.994489110582469</v>
       </c>
       <c r="N7">
-        <v>12.25219086939694</v>
+        <v>19.18341623939077</v>
       </c>
       <c r="O7">
-        <v>2.583892956157399</v>
+        <v>5.792600345842197</v>
       </c>
       <c r="P7">
-        <v>2.919246420235871</v>
+        <v>5.342184620442113</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.609162708961326</v>
+        <v>3.941014946609372</v>
       </c>
       <c r="C8">
-        <v>2.606422905449405</v>
+        <v>5.144109074045934</v>
       </c>
       <c r="D8">
-        <v>2.341214793761214</v>
+        <v>3.548805720809688</v>
       </c>
       <c r="E8">
-        <v>16.09331129238991</v>
+        <v>21.97413784091881</v>
       </c>
       <c r="F8">
-        <v>8.533666110680832</v>
+        <v>15.91113491352363</v>
       </c>
       <c r="G8">
-        <v>2.151122222638036</v>
+        <v>3.730367212918605</v>
       </c>
       <c r="H8">
-        <v>2.662109820551805</v>
+        <v>5.421412071108101</v>
       </c>
       <c r="I8">
-        <v>5.136036813248526</v>
+        <v>5.956238887092485</v>
       </c>
       <c r="J8">
-        <v>1.154827493910647</v>
+        <v>3.483122576427619</v>
       </c>
       <c r="K8">
-        <v>7.060378649060857</v>
+        <v>7.231526704465963</v>
       </c>
       <c r="L8">
-        <v>8.450676030551623</v>
+        <v>12.2049864348237</v>
       </c>
       <c r="M8">
-        <v>2.839111292213846</v>
+        <v>7.187235994139628</v>
       </c>
       <c r="N8">
-        <v>12.25584530084931</v>
+        <v>19.14936008436883</v>
       </c>
       <c r="O8">
-        <v>2.646309973618142</v>
+        <v>5.85767024763439</v>
       </c>
       <c r="P8">
-        <v>2.990200118316361</v>
+        <v>5.54779404259757</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.193576742638388</v>
+        <v>3.282344688708248</v>
       </c>
       <c r="C9">
-        <v>2.509054219657043</v>
+        <v>4.974130808811019</v>
       </c>
       <c r="D9">
-        <v>2.339042843236309</v>
+        <v>3.472784527700088</v>
       </c>
       <c r="E9">
-        <v>16.08799513918208</v>
+        <v>21.92060338960344</v>
       </c>
       <c r="F9">
-        <v>8.352356989824663</v>
+        <v>15.6569002166525</v>
       </c>
       <c r="G9">
-        <v>2.153944838860858</v>
+        <v>3.511122637278185</v>
       </c>
       <c r="H9">
-        <v>2.513726171947227</v>
+        <v>5.19783924127137</v>
       </c>
       <c r="I9">
-        <v>5.272404409169006</v>
+        <v>5.72931918002951</v>
       </c>
       <c r="J9">
-        <v>1.749128404462708</v>
+        <v>2.839163435197942</v>
       </c>
       <c r="K9">
-        <v>7.074609583335254</v>
+        <v>7.245721077933847</v>
       </c>
       <c r="L9">
-        <v>8.316809751827519</v>
+        <v>12.01169499942741</v>
       </c>
       <c r="M9">
-        <v>2.861857831017671</v>
+        <v>6.745683152493311</v>
       </c>
       <c r="N9">
-        <v>12.31737509600657</v>
+        <v>19.16020583066151</v>
       </c>
       <c r="O9">
-        <v>2.487235586917419</v>
+        <v>5.632910220307312</v>
       </c>
       <c r="P9">
-        <v>2.934535408263455</v>
+        <v>5.379770241339969</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.320349725426297</v>
+        <v>1.735701592288228</v>
       </c>
       <c r="C10">
-        <v>2.230437653990826</v>
+        <v>4.436950860952162</v>
       </c>
       <c r="D10">
-        <v>2.359230070363346</v>
+        <v>2.918460052090019</v>
       </c>
       <c r="E10">
-        <v>16.49238687185974</v>
+        <v>22.49176644352729</v>
       </c>
       <c r="F10">
-        <v>7.968581344976777</v>
+        <v>15.45680450937204</v>
       </c>
       <c r="G10">
-        <v>2.2916616811747</v>
+        <v>3.129735327927698</v>
       </c>
       <c r="H10">
-        <v>2.10378813244156</v>
+        <v>4.494665466885912</v>
       </c>
       <c r="I10">
-        <v>5.393757025231878</v>
+        <v>5.904312120826021</v>
       </c>
       <c r="J10">
-        <v>2.562640603712968</v>
+        <v>2.60093321972789</v>
       </c>
       <c r="K10">
-        <v>7.103114740337723</v>
+        <v>7.28217996251965</v>
       </c>
       <c r="L10">
-        <v>7.859486056513693</v>
+        <v>11.56252528091243</v>
       </c>
       <c r="M10">
-        <v>3.710284052253801</v>
+        <v>5.140123493580303</v>
       </c>
       <c r="N10">
-        <v>12.53927372188671</v>
+        <v>19.59699149780229</v>
       </c>
       <c r="O10">
-        <v>1.944493506916511</v>
+        <v>4.923297974671108</v>
       </c>
       <c r="P10">
-        <v>2.863737307788825</v>
+        <v>4.342819314796092</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.644884648797142</v>
+        <v>2.127401718966036</v>
       </c>
       <c r="C11">
-        <v>2.293609968541441</v>
+        <v>3.833896116739303</v>
       </c>
       <c r="D11">
-        <v>2.815134724242057</v>
+        <v>2.504013671039677</v>
       </c>
       <c r="E11">
-        <v>16.96018375881318</v>
+        <v>23.07706658529312</v>
       </c>
       <c r="F11">
-        <v>7.576736605503761</v>
+        <v>15.1825885596124</v>
       </c>
       <c r="G11">
-        <v>2.572063922788843</v>
+        <v>2.804812899292273</v>
       </c>
       <c r="H11">
-        <v>1.990702409641053</v>
+        <v>3.694815400666426</v>
       </c>
       <c r="I11">
-        <v>5.520594465797411</v>
+        <v>5.984448511410598</v>
       </c>
       <c r="J11">
-        <v>3.111263207813813</v>
+        <v>2.742602543964688</v>
       </c>
       <c r="K11">
-        <v>7.126827893167224</v>
+        <v>7.312231471027873</v>
       </c>
       <c r="L11">
-        <v>7.391175828132384</v>
+        <v>11.03672787557744</v>
       </c>
       <c r="M11">
-        <v>5.426519441909475</v>
+        <v>3.545047520305519</v>
       </c>
       <c r="N11">
-        <v>12.72268249603936</v>
+        <v>19.93462076381148</v>
       </c>
       <c r="O11">
-        <v>1.663828288094281</v>
+        <v>4.113282876044305</v>
       </c>
       <c r="P11">
-        <v>3.54439886332995</v>
+        <v>3.294189726889853</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.500688823502919</v>
+        <v>2.847622737774051</v>
       </c>
       <c r="C12">
-        <v>2.371551302384808</v>
+        <v>3.594375566947396</v>
       </c>
       <c r="D12">
-        <v>3.04889889869674</v>
+        <v>2.466242654444965</v>
       </c>
       <c r="E12">
-        <v>17.05358553359099</v>
+        <v>23.12216954843899</v>
       </c>
       <c r="F12">
-        <v>7.35731776125554</v>
+        <v>14.88330460758284</v>
       </c>
       <c r="G12">
-        <v>2.727804924346196</v>
+        <v>2.66795915448891</v>
       </c>
       <c r="H12">
-        <v>2.072140107392818</v>
+        <v>3.268865390575358</v>
       </c>
       <c r="I12">
-        <v>5.646564874515725</v>
+        <v>5.767635112411845</v>
       </c>
       <c r="J12">
-        <v>3.593083010113456</v>
+        <v>2.664440663788068</v>
       </c>
       <c r="K12">
-        <v>7.137756887227501</v>
+        <v>7.323037426666425</v>
       </c>
       <c r="L12">
-        <v>7.221396017393825</v>
+        <v>10.77636019326628</v>
       </c>
       <c r="M12">
-        <v>6.074369803408784</v>
+        <v>3.098037001587945</v>
       </c>
       <c r="N12">
-        <v>12.7725873254954</v>
+        <v>19.93289010929454</v>
       </c>
       <c r="O12">
-        <v>1.659095604950798</v>
+        <v>3.825222399275904</v>
       </c>
       <c r="P12">
-        <v>3.855153442023601</v>
+        <v>3.035218267664702</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.631748058223508</v>
+        <v>3.006031782067522</v>
       </c>
       <c r="C13">
-        <v>2.403527347508424</v>
+        <v>3.49617581768563</v>
       </c>
       <c r="D13">
-        <v>3.332976596761947</v>
+        <v>2.481742315163758</v>
       </c>
       <c r="E13">
-        <v>17.0942442520447</v>
+        <v>23.10833618407368</v>
       </c>
       <c r="F13">
-        <v>7.124171955756206</v>
+        <v>14.55931993732217</v>
       </c>
       <c r="G13">
-        <v>2.739052587809284</v>
+        <v>2.67454103338944</v>
       </c>
       <c r="H13">
-        <v>2.542026786482623</v>
+        <v>2.525094400150315</v>
       </c>
       <c r="I13">
-        <v>5.708077814075468</v>
+        <v>5.604990507192894</v>
       </c>
       <c r="J13">
-        <v>3.892203290709038</v>
+        <v>2.706328717178198</v>
       </c>
       <c r="K13">
-        <v>7.135084479205829</v>
+        <v>7.319299838864442</v>
       </c>
       <c r="L13">
-        <v>7.146454991122001</v>
+        <v>10.6377689568087</v>
       </c>
       <c r="M13">
-        <v>6.309225351965399</v>
+        <v>2.954240188973803</v>
       </c>
       <c r="N13">
-        <v>12.76024386928332</v>
+        <v>19.85883971157572</v>
       </c>
       <c r="O13">
-        <v>1.607541983855957</v>
+        <v>3.981772488211627</v>
       </c>
       <c r="P13">
-        <v>4.045068192154393</v>
+        <v>2.910592485188653</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.245197824267818</v>
+        <v>2.741667844374267</v>
       </c>
       <c r="C14">
-        <v>2.378430812896376</v>
+        <v>3.51371471253785</v>
       </c>
       <c r="D14">
-        <v>3.463042101753652</v>
+        <v>2.507404742866377</v>
       </c>
       <c r="E14">
-        <v>17.05703906492818</v>
+        <v>22.9912423757318</v>
       </c>
       <c r="F14">
-        <v>7.010098561760546</v>
+        <v>14.33230073441689</v>
       </c>
       <c r="G14">
-        <v>2.656663356838241</v>
+        <v>2.741752432901143</v>
       </c>
       <c r="H14">
-        <v>2.987288269048143</v>
+        <v>2.086813157214063</v>
       </c>
       <c r="I14">
-        <v>5.724103634664116</v>
+        <v>5.443413239097046</v>
       </c>
       <c r="J14">
-        <v>3.891743074248649</v>
+        <v>2.723569541285136</v>
       </c>
       <c r="K14">
-        <v>7.125044366644478</v>
+        <v>7.30658087878195</v>
       </c>
       <c r="L14">
-        <v>7.16709043171349</v>
+        <v>10.61400145879056</v>
       </c>
       <c r="M14">
-        <v>6.144462800824973</v>
+        <v>2.988311303607026</v>
       </c>
       <c r="N14">
-        <v>12.6949406314028</v>
+        <v>19.69735387193196</v>
       </c>
       <c r="O14">
-        <v>1.625737686652795</v>
+        <v>4.27770634697124</v>
       </c>
       <c r="P14">
-        <v>4.029328055110378</v>
+        <v>2.898921042751057</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.893425049785595</v>
+        <v>2.557891592064925</v>
       </c>
       <c r="C15">
-        <v>2.351160294173964</v>
+        <v>3.526218288324858</v>
       </c>
       <c r="D15">
-        <v>3.457855465399013</v>
+        <v>2.505991044722803</v>
       </c>
       <c r="E15">
-        <v>16.98484270461561</v>
+        <v>22.79986779438187</v>
       </c>
       <c r="F15">
-        <v>6.978431639739579</v>
+        <v>14.14592912066121</v>
       </c>
       <c r="G15">
-        <v>2.592931192440079</v>
+        <v>2.773769874773031</v>
       </c>
       <c r="H15">
-        <v>3.139675587224756</v>
+        <v>1.965994843444342</v>
       </c>
       <c r="I15">
-        <v>5.757588184718069</v>
+        <v>5.19384417129551</v>
       </c>
       <c r="J15">
-        <v>3.783891417342828</v>
+        <v>2.689124532978103</v>
       </c>
       <c r="K15">
-        <v>7.11690474666023</v>
+        <v>7.294376534930587</v>
       </c>
       <c r="L15">
-        <v>7.202955787916293</v>
+        <v>10.58550925084246</v>
       </c>
       <c r="M15">
-        <v>5.937131989011816</v>
+        <v>3.031800223281149</v>
       </c>
       <c r="N15">
-        <v>12.61623733685681</v>
+        <v>19.47386366752383</v>
       </c>
       <c r="O15">
-        <v>1.682491683828166</v>
+        <v>4.409888786050206</v>
       </c>
       <c r="P15">
-        <v>3.950778916963292</v>
+        <v>2.912354039223223</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.771352055895246</v>
+        <v>2.347427435752773</v>
       </c>
       <c r="C16">
-        <v>2.338685323037465</v>
+        <v>3.605738151684641</v>
       </c>
       <c r="D16">
-        <v>3.462361939167664</v>
+        <v>2.500913441431749</v>
       </c>
       <c r="E16">
-        <v>17.01994585766506</v>
+        <v>22.95113279881206</v>
       </c>
       <c r="F16">
-        <v>7.013629482456948</v>
+        <v>14.33191241762999</v>
       </c>
       <c r="G16">
-        <v>2.570383231803258</v>
+        <v>2.833152798300504</v>
       </c>
       <c r="H16">
-        <v>3.184456362915025</v>
+        <v>1.973642150031544</v>
       </c>
       <c r="I16">
-        <v>5.680367405073576</v>
+        <v>5.482236841545447</v>
       </c>
       <c r="J16">
-        <v>3.754083781009194</v>
+        <v>2.73369174872586</v>
       </c>
       <c r="K16">
-        <v>7.11649134431873</v>
+        <v>7.297436317728319</v>
       </c>
       <c r="L16">
-        <v>7.229660889877615</v>
+        <v>10.69730687354683</v>
       </c>
       <c r="M16">
-        <v>5.858239022889636</v>
+        <v>3.130159494231959</v>
       </c>
       <c r="N16">
-        <v>12.65478048009997</v>
+        <v>19.65170319374675</v>
       </c>
       <c r="O16">
-        <v>1.710430067694821</v>
+        <v>4.55880547689747</v>
       </c>
       <c r="P16">
-        <v>3.92242348721408</v>
+        <v>2.951913661427398</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.665889612605824</v>
+        <v>2.129355474585608</v>
       </c>
       <c r="C17">
-        <v>2.326979453058087</v>
+        <v>3.700318667700075</v>
       </c>
       <c r="D17">
-        <v>3.463264364525529</v>
+        <v>2.494454136778886</v>
       </c>
       <c r="E17">
-        <v>17.06872357124196</v>
+        <v>23.15074828113372</v>
       </c>
       <c r="F17">
-        <v>7.062359655514718</v>
+        <v>14.57671572657702</v>
       </c>
       <c r="G17">
-        <v>2.551233171177739</v>
+        <v>2.901914304216138</v>
       </c>
       <c r="H17">
-        <v>3.209013227063958</v>
+        <v>2.004370905406446</v>
       </c>
       <c r="I17">
-        <v>5.584906553828965</v>
+        <v>5.852230825070141</v>
       </c>
       <c r="J17">
-        <v>3.726689096639934</v>
+        <v>2.794211915971046</v>
       </c>
       <c r="K17">
-        <v>7.116973797055465</v>
+        <v>7.302473992256124</v>
       </c>
       <c r="L17">
-        <v>7.258299018041611</v>
+        <v>10.83466500404773</v>
       </c>
       <c r="M17">
-        <v>5.785540474454117</v>
+        <v>3.257299157330302</v>
       </c>
       <c r="N17">
-        <v>12.70920876349997</v>
+        <v>19.88723095185681</v>
       </c>
       <c r="O17">
-        <v>1.73724855031664</v>
+        <v>4.716735081117221</v>
       </c>
       <c r="P17">
-        <v>3.895069670843548</v>
+        <v>3.003660307332876</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.139394481787624</v>
+        <v>1.791903893314785</v>
       </c>
       <c r="C18">
-        <v>2.284218964486139</v>
+        <v>3.826215324100003</v>
       </c>
       <c r="D18">
-        <v>3.292870099338484</v>
+        <v>2.453016364027874</v>
       </c>
       <c r="E18">
-        <v>16.99418550265449</v>
+        <v>23.06066572924649</v>
       </c>
       <c r="F18">
-        <v>7.18181713253386</v>
+        <v>14.68762576508575</v>
       </c>
       <c r="G18">
-        <v>2.471482186579647</v>
+        <v>2.984824229282439</v>
       </c>
       <c r="H18">
-        <v>3.038679884838609</v>
+        <v>2.188785000497917</v>
       </c>
       <c r="I18">
-        <v>5.5329319415825</v>
+        <v>5.877666948311322</v>
       </c>
       <c r="J18">
-        <v>3.428974307378247</v>
+        <v>2.795096804720452</v>
       </c>
       <c r="K18">
-        <v>7.109628545816375</v>
+        <v>7.293804479447322</v>
       </c>
       <c r="L18">
-        <v>7.358537305892517</v>
+        <v>10.95934326128992</v>
       </c>
       <c r="M18">
-        <v>5.392254358566642</v>
+        <v>3.518967644937797</v>
       </c>
       <c r="N18">
-        <v>12.65957609669946</v>
+        <v>19.81487465032579</v>
       </c>
       <c r="O18">
-        <v>1.825304331741954</v>
+        <v>4.870574099656269</v>
       </c>
       <c r="P18">
-        <v>3.69720323489514</v>
+        <v>3.137009190378151</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.940357574738302</v>
+        <v>1.652134598628899</v>
       </c>
       <c r="C19">
-        <v>2.267179855995842</v>
+        <v>3.922679360920965</v>
       </c>
       <c r="D19">
-        <v>3.160796754968034</v>
+        <v>2.439740466459292</v>
       </c>
       <c r="E19">
-        <v>16.98089472593495</v>
+        <v>23.11426269193847</v>
       </c>
       <c r="F19">
-        <v>7.302386728302396</v>
+        <v>14.90419541213159</v>
       </c>
       <c r="G19">
-        <v>2.444135352656048</v>
+        <v>3.030340949916911</v>
       </c>
       <c r="H19">
-        <v>2.80999261292316</v>
+        <v>2.450607785748947</v>
       </c>
       <c r="I19">
-        <v>5.467652161647703</v>
+        <v>6.065909647553771</v>
       </c>
       <c r="J19">
-        <v>3.255573160578047</v>
+        <v>2.835215011722163</v>
       </c>
       <c r="K19">
-        <v>7.108992902403016</v>
+        <v>7.294786484704971</v>
       </c>
       <c r="L19">
-        <v>7.417593423558206</v>
+        <v>11.08204989484417</v>
       </c>
       <c r="M19">
-        <v>5.206757546627197</v>
+        <v>3.713379429410201</v>
       </c>
       <c r="N19">
-        <v>12.67126075611509</v>
+        <v>19.90469870081116</v>
       </c>
       <c r="O19">
-        <v>1.833750063737983</v>
+        <v>4.907487297947625</v>
       </c>
       <c r="P19">
-        <v>3.589644354187296</v>
+        <v>3.248708379354607</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.633619977602988</v>
+        <v>2.098377568138791</v>
       </c>
       <c r="C20">
-        <v>2.304599626085442</v>
+        <v>3.791627149887283</v>
       </c>
       <c r="D20">
-        <v>3.059779621992559</v>
+        <v>2.453197666398058</v>
       </c>
       <c r="E20">
-        <v>17.0097583874414</v>
+        <v>23.12997111503122</v>
       </c>
       <c r="F20">
-        <v>7.371175374161288</v>
+        <v>14.96317465757091</v>
       </c>
       <c r="G20">
-        <v>2.558930402954984</v>
+        <v>2.853911446633897</v>
       </c>
       <c r="H20">
-        <v>2.348524530408477</v>
+        <v>2.939198902890431</v>
       </c>
       <c r="I20">
-        <v>5.535066251481497</v>
+        <v>5.974230038427842</v>
       </c>
       <c r="J20">
-        <v>3.356793134293178</v>
+        <v>2.754403456093658</v>
       </c>
       <c r="K20">
-        <v>7.122768026432586</v>
+        <v>7.308732588514731</v>
       </c>
       <c r="L20">
-        <v>7.340801585225333</v>
+        <v>10.9713570836293</v>
       </c>
       <c r="M20">
-        <v>5.559590483790202</v>
+        <v>3.443038141828921</v>
       </c>
       <c r="N20">
-        <v>12.72293745533094</v>
+        <v>19.94208812439739</v>
       </c>
       <c r="O20">
-        <v>1.661593581849591</v>
+        <v>4.380597189063224</v>
       </c>
       <c r="P20">
-        <v>3.67757445374295</v>
+        <v>3.17496937749349</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.1660687968381</v>
+        <v>3.30239517441818</v>
       </c>
       <c r="C21">
-        <v>2.441551789412869</v>
+        <v>3.500080635562806</v>
       </c>
       <c r="D21">
-        <v>3.206869859299537</v>
+        <v>2.479309633928728</v>
       </c>
       <c r="E21">
-        <v>17.18137127525242</v>
+        <v>23.37958395806593</v>
       </c>
       <c r="F21">
-        <v>7.272476457455208</v>
+        <v>14.95561429951424</v>
       </c>
       <c r="G21">
-        <v>2.860010505252493</v>
+        <v>2.613415129303719</v>
       </c>
       <c r="H21">
-        <v>2.102471269733103</v>
+        <v>3.158709995625443</v>
       </c>
       <c r="I21">
-        <v>5.647009406736869</v>
+        <v>6.001238631057619</v>
       </c>
       <c r="J21">
-        <v>3.935605468171041</v>
+        <v>2.721307317467134</v>
       </c>
       <c r="K21">
-        <v>7.149485721773114</v>
+        <v>7.339783219051882</v>
       </c>
       <c r="L21">
-        <v>7.116975143024734</v>
+        <v>10.71706872020615</v>
       </c>
       <c r="M21">
-        <v>6.557555761399968</v>
+        <v>2.929994736407</v>
       </c>
       <c r="N21">
-        <v>12.88130577090036</v>
+        <v>20.20211743855687</v>
       </c>
       <c r="O21">
-        <v>1.698482954194961</v>
+        <v>3.665391462693685</v>
       </c>
       <c r="P21">
-        <v>4.090456651683652</v>
+        <v>2.930260378727633</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.07632742105013</v>
+        <v>3.957092855617186</v>
       </c>
       <c r="C22">
-        <v>2.555645671142424</v>
+        <v>3.372580161160965</v>
       </c>
       <c r="D22">
-        <v>3.433873440799188</v>
+        <v>2.518298431566982</v>
       </c>
       <c r="E22">
-        <v>17.35442790729752</v>
+        <v>23.72637340781707</v>
       </c>
       <c r="F22">
-        <v>7.156431059867831</v>
+        <v>15.04973440701711</v>
       </c>
       <c r="G22">
-        <v>3.053879407557646</v>
+        <v>2.550119815074475</v>
       </c>
       <c r="H22">
-        <v>2.165443629457858</v>
+        <v>3.007729762685442</v>
       </c>
       <c r="I22">
-        <v>5.649340403588189</v>
+        <v>6.312718208357169</v>
       </c>
       <c r="J22">
-        <v>4.406247820879996</v>
+        <v>2.844805002188727</v>
       </c>
       <c r="K22">
-        <v>7.165507589696428</v>
+        <v>7.362613937487583</v>
       </c>
       <c r="L22">
-        <v>6.978359231125706</v>
+        <v>10.63408310621133</v>
       </c>
       <c r="M22">
-        <v>7.230050088714007</v>
+        <v>2.776358438345779</v>
       </c>
       <c r="N22">
-        <v>13.0287053462307</v>
+        <v>20.56476913093001</v>
       </c>
       <c r="O22">
-        <v>1.806236003413746</v>
+        <v>3.445803150258941</v>
       </c>
       <c r="P22">
-        <v>4.432258701978587</v>
+        <v>2.816932386504821</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.71399126782029</v>
+        <v>4.356707006345268</v>
       </c>
       <c r="C23">
-        <v>2.645831677533318</v>
+        <v>3.313147628091275</v>
       </c>
       <c r="D23">
-        <v>3.617269659913366</v>
+        <v>2.562139959034054</v>
       </c>
       <c r="E23">
-        <v>17.50286297147093</v>
+        <v>24.06172798336232</v>
       </c>
       <c r="F23">
-        <v>7.084534978153105</v>
+        <v>15.20848463317419</v>
       </c>
       <c r="G23">
-        <v>3.194635260999332</v>
+        <v>2.529367582637983</v>
       </c>
       <c r="H23">
-        <v>2.247966771981304</v>
+        <v>2.898321920412872</v>
       </c>
       <c r="I23">
-        <v>5.614909209040259</v>
+        <v>6.685901062726668</v>
       </c>
       <c r="J23">
-        <v>4.753055559232538</v>
+        <v>2.982245067980843</v>
       </c>
       <c r="K23">
-        <v>7.177564840810271</v>
+        <v>7.381567206565832</v>
       </c>
       <c r="L23">
-        <v>6.887470720869968</v>
+        <v>10.62328101082472</v>
       </c>
       <c r="M23">
-        <v>7.711742376313683</v>
+        <v>2.731163003457098</v>
       </c>
       <c r="N23">
-        <v>13.15952615049605</v>
+        <v>20.92516396188774</v>
       </c>
       <c r="O23">
-        <v>1.899872845413604</v>
+        <v>3.345733623709843</v>
       </c>
       <c r="P23">
-        <v>4.691160189972559</v>
+        <v>2.764881379113785</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.92804575920757</v>
+        <v>4.417401076608121</v>
       </c>
       <c r="C24">
-        <v>2.675338728008956</v>
+        <v>3.324837132275994</v>
       </c>
       <c r="D24">
-        <v>3.681690639079678</v>
+        <v>2.577485608097944</v>
       </c>
       <c r="E24">
-        <v>17.57859000434257</v>
+        <v>24.2685796660552</v>
       </c>
       <c r="F24">
-        <v>7.081442269633792</v>
+        <v>15.37153087681854</v>
       </c>
       <c r="G24">
-        <v>3.241676137400219</v>
+        <v>2.536733829305688</v>
       </c>
       <c r="H24">
-        <v>2.272843422268328</v>
+        <v>2.901327265885467</v>
       </c>
       <c r="I24">
-        <v>5.564705464404335</v>
+        <v>6.974607905773491</v>
       </c>
       <c r="J24">
-        <v>4.871678687287289</v>
+        <v>3.047151484731248</v>
       </c>
       <c r="K24">
-        <v>7.182703790755881</v>
+        <v>7.391197511925207</v>
       </c>
       <c r="L24">
-        <v>6.863332231520693</v>
+        <v>10.67281695547839</v>
       </c>
       <c r="M24">
-        <v>7.870394305536629</v>
+        <v>2.726043120215978</v>
       </c>
       <c r="N24">
-        <v>13.23227364710141</v>
+        <v>21.15743338127562</v>
       </c>
       <c r="O24">
-        <v>1.932030991676536</v>
+        <v>3.353472819016516</v>
       </c>
       <c r="P24">
-        <v>4.778597187346949</v>
+        <v>2.75709475907917</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.51592243003745</v>
+        <v>3.011836517825984</v>
       </c>
       <c r="C25">
-        <v>2.465975955452897</v>
+        <v>3.701553748473412</v>
       </c>
       <c r="D25">
-        <v>3.291651952701531</v>
+        <v>2.507347919070138</v>
       </c>
       <c r="E25">
-        <v>17.44244219863795</v>
+        <v>24.22638802502987</v>
       </c>
       <c r="F25">
-        <v>7.397234122686269</v>
+        <v>15.83453216845763</v>
       </c>
       <c r="G25">
-        <v>2.92546682625598</v>
+        <v>2.718880612553981</v>
       </c>
       <c r="H25">
-        <v>2.059912502921152</v>
+        <v>3.440813091265132</v>
       </c>
       <c r="I25">
-        <v>5.354092880061678</v>
+        <v>7.3614334337449</v>
       </c>
       <c r="J25">
-        <v>4.12022287917415</v>
+        <v>2.944128467528263</v>
       </c>
       <c r="K25">
-        <v>7.163989187925591</v>
+        <v>7.373114162405836</v>
       </c>
       <c r="L25">
-        <v>7.112170577318894</v>
+        <v>11.09466593933561</v>
       </c>
       <c r="M25">
-        <v>6.778251493775972</v>
+        <v>3.08842418008157</v>
       </c>
       <c r="N25">
-        <v>13.15575143602423</v>
+        <v>21.18456471127216</v>
       </c>
       <c r="O25">
-        <v>1.718760988082753</v>
+        <v>3.889048509556251</v>
       </c>
       <c r="P25">
-        <v>4.202126874501275</v>
+        <v>3.007619869619411</v>
       </c>
     </row>
   </sheetData>
